--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1773069.240093425</v>
+        <v>1772295.220256373</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681852</v>
       </c>
     </row>
     <row r="9">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8.913048077374695e-13</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.979511646297204e-13</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.79021388715344</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.79021388715344</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="S8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>13.08407736769428</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1300,61 +1300,61 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.08407736769427</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>13.08407736769427</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="X10" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>261.4265738238063</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.6952595113539</v>
       </c>
       <c r="D11" t="n">
         <v>234.3148965870097</v>
       </c>
       <c r="E11" t="n">
-        <v>133.6565331980769</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>71.69286652100949</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.39268990868005</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.1462124370283</v>
       </c>
       <c r="V11" t="n">
         <v>206.2433853549306</v>
       </c>
       <c r="W11" t="n">
-        <v>228.2402808329659</v>
+        <v>154.059887757628</v>
       </c>
       <c r="X11" t="n">
         <v>248.5717629635807</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.3972355836471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.08228944275614</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>48.7357477598123</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>23.82258740705687</v>
       </c>
       <c r="E12" t="n">
-        <v>37.04683795591333</v>
+        <v>33.74359753958514</v>
       </c>
       <c r="F12" t="n">
         <v>21.2163959159606</v>
@@ -1464,7 +1464,7 @@
         <v>135.744216734186</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,10 +1500,10 @@
         <v>163.7794325500455</v>
       </c>
       <c r="T12" t="n">
-        <v>74.96815626823717</v>
+        <v>197.2579924358259</v>
       </c>
       <c r="U12" t="n">
-        <v>102.3489860660036</v>
+        <v>213.4202524306683</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1512,7 +1512,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.17179344088957</v>
       </c>
       <c r="Y12" t="n">
         <v>81.38131525099733</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.6204367915065</v>
+        <v>113.3846451719845</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.8281995876987</v>
       </c>
       <c r="F14" t="n">
-        <v>285.0040273129521</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>292.0434920871499</v>
+        <v>292.0434920871498</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.83176601015391</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1652,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.69286652100945</v>
+        <v>71.69286652100944</v>
       </c>
       <c r="T14" t="n">
-        <v>98.39268990868005</v>
+        <v>98.39268990868</v>
       </c>
       <c r="U14" t="n">
         <v>129.1462124370283</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.2433853549306</v>
       </c>
       <c r="W14" t="n">
-        <v>228.2402808329659</v>
+        <v>228.2402808329658</v>
       </c>
       <c r="X14" t="n">
-        <v>248.5717629635807</v>
+        <v>248.5717629635806</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.08228944275612</v>
+        <v>43.08228944275608</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.73574775981224</v>
       </c>
       <c r="D15" t="n">
-        <v>72.51781678086243</v>
+        <v>23.82258740705682</v>
       </c>
       <c r="E15" t="n">
-        <v>33.74359753958512</v>
+        <v>33.74359753958508</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.21639591596055</v>
       </c>
       <c r="G15" t="n">
-        <v>13.45438056659729</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.89784721011132</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.37291145652043</v>
       </c>
       <c r="S15" t="n">
-        <v>41.48959638245682</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T15" t="n">
-        <v>74.96815626823715</v>
+        <v>197.2579924358259</v>
       </c>
       <c r="U15" t="n">
-        <v>102.3489860660035</v>
+        <v>224.6388222335922</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>161.3978654905559</v>
       </c>
       <c r="X15" t="n">
-        <v>82.17179344088956</v>
+        <v>82.17179344088952</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.7938553230951</v>
+        <v>57.79385532309506</v>
       </c>
       <c r="C16" t="n">
-        <v>45.04671676361363</v>
+        <v>45.04671676361359</v>
       </c>
       <c r="D16" t="n">
-        <v>26.71573034693066</v>
+        <v>26.71573034693061</v>
       </c>
       <c r="E16" t="n">
-        <v>24.68478800561047</v>
+        <v>24.68478800561043</v>
       </c>
       <c r="F16" t="n">
-        <v>23.86918524221579</v>
+        <v>23.86918524221575</v>
       </c>
       <c r="G16" t="n">
-        <v>45.36585400855152</v>
+        <v>45.36585400855147</v>
       </c>
       <c r="H16" t="n">
-        <v>37.26466328332312</v>
+        <v>37.26466328332309</v>
       </c>
       <c r="I16" t="n">
-        <v>24.43473719230925</v>
+        <v>24.43473719230921</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58437298287587</v>
+        <v>40.58437298287585</v>
       </c>
       <c r="S16" t="n">
-        <v>95.99135341786697</v>
+        <v>95.99135341786693</v>
       </c>
       <c r="T16" t="n">
         <v>105.0432442387836</v>
@@ -1831,7 +1831,7 @@
         <v>103.8505237647205</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.45883770017952</v>
+        <v>96.45883770017947</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1847,10 @@
         <v>143.2884519918106</v>
       </c>
       <c r="D17" t="n">
-        <v>132.9080890674663</v>
+        <v>132.9080890674664</v>
       </c>
       <c r="E17" t="n">
-        <v>159.4213920681554</v>
+        <v>159.4213920681555</v>
       </c>
       <c r="F17" t="n">
         <v>183.5972197934088</v>
@@ -1859,7 +1859,7 @@
         <v>190.6366845676066</v>
       </c>
       <c r="H17" t="n">
-        <v>109.1070914978809</v>
+        <v>109.1070914978798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.73940491748498</v>
+        <v>27.73940491748504</v>
       </c>
       <c r="V17" t="n">
         <v>104.8365778353873</v>
       </c>
       <c r="W17" t="n">
-        <v>126.8334733134225</v>
+        <v>126.8334733134226</v>
       </c>
       <c r="X17" t="n">
-        <v>147.1649554440373</v>
+        <v>147.1649554440374</v>
       </c>
       <c r="Y17" t="n">
         <v>162.9904280641038</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.744216734186</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.37291145652043</v>
       </c>
       <c r="S18" t="n">
         <v>163.7794325500455</v>
@@ -1980,10 +1980,10 @@
         <v>224.6388222335922</v>
       </c>
       <c r="V18" t="n">
-        <v>18.41305800480295</v>
+        <v>156.3466644845782</v>
       </c>
       <c r="W18" t="n">
-        <v>26.29270306286799</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.636436719240282</v>
+        <v>3.636436719240339</v>
       </c>
       <c r="U19" t="n">
-        <v>258.5776310848385</v>
+        <v>62.34286859007943</v>
       </c>
       <c r="V19" t="n">
-        <v>29.2397073798071</v>
+        <v>29.23970737980716</v>
       </c>
       <c r="W19" t="n">
-        <v>62.39593320028348</v>
+        <v>258.6306956950424</v>
       </c>
       <c r="X19" t="n">
-        <v>2.4437162451772</v>
+        <v>2.443716245177256</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>159.4213920681555</v>
       </c>
       <c r="F20" t="n">
-        <v>183.5972197934088</v>
+        <v>183.5972197934103</v>
       </c>
       <c r="G20" t="n">
         <v>190.6366845676066</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.73940491748504</v>
+        <v>27.73940491748505</v>
       </c>
       <c r="V20" t="n">
         <v>104.8365778353873</v>
@@ -2160,7 +2160,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>135.744216734186</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>77.37291145652043</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2579924358259</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9421785464602535</v>
+        <v>224.6388222335922</v>
       </c>
       <c r="V21" t="n">
-        <v>223.3672790110532</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>156.4374881639024</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>16.15107100407506</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>196.2347624947589</v>
       </c>
       <c r="T22" t="n">
         <v>3.636436719240339</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>95.46351737232261</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.744216734186</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,22 +2442,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.37291145652043</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T24" t="n">
         <v>197.2579924358259</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9421785464602535</v>
+        <v>224.6388222335922</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>175.3599459124375</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>50.07574108495438</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>62.34286859007943</v>
       </c>
       <c r="V25" t="n">
-        <v>29.23970737980716</v>
+        <v>225.474469874566</v>
       </c>
       <c r="W25" t="n">
         <v>62.39593320028354</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.8114740767907</v>
+        <v>241.8114740767906</v>
       </c>
       <c r="C26" t="n">
-        <v>225.0801597643383</v>
+        <v>225.0801597643382</v>
       </c>
       <c r="D26" t="n">
-        <v>214.6997968399941</v>
+        <v>214.699796839994</v>
       </c>
       <c r="E26" t="n">
-        <v>241.2130998406831</v>
+        <v>241.213099840683</v>
       </c>
       <c r="F26" t="n">
-        <v>254.620576239783</v>
+        <v>265.3889275659364</v>
       </c>
       <c r="G26" t="n">
-        <v>272.4283923401343</v>
+        <v>261.6600410139814</v>
       </c>
       <c r="H26" t="n">
-        <v>190.8987992704074</v>
+        <v>190.8987992704073</v>
       </c>
       <c r="I26" t="n">
-        <v>43.21666626313833</v>
+        <v>43.21666626313822</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.07776677399385</v>
+        <v>52.07776677399374</v>
       </c>
       <c r="T26" t="n">
-        <v>78.77759016166443</v>
+        <v>78.77759016166432</v>
       </c>
       <c r="U26" t="n">
-        <v>109.5311126900127</v>
+        <v>109.5311126900126</v>
       </c>
       <c r="V26" t="n">
-        <v>186.628285607915</v>
+        <v>186.6282856079149</v>
       </c>
       <c r="W26" t="n">
-        <v>208.6251810859503</v>
+        <v>208.6251810859501</v>
       </c>
       <c r="X26" t="n">
-        <v>228.9566632165651</v>
+        <v>228.9566632165649</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.7821358366315</v>
+        <v>244.7821358366314</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>146.1267632728688</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>4.207487660041124</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>14.12849779256939</v>
       </c>
       <c r="F27" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>39.63320380355152</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7680259483362</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.37291145652043</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.87449663544121</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T27" t="n">
         <v>197.2579924358259</v>
@@ -2691,7 +2691,7 @@
         <v>224.6388222335922</v>
       </c>
       <c r="V27" t="n">
-        <v>90.0037951250508</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.7662155039817</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.17875557607948</v>
+        <v>38.17875557607937</v>
       </c>
       <c r="C28" t="n">
-        <v>25.43161701659801</v>
+        <v>25.4316170165979</v>
       </c>
       <c r="D28" t="n">
-        <v>7.100630599915036</v>
+        <v>7.100630599914922</v>
       </c>
       <c r="E28" t="n">
-        <v>5.069688258594852</v>
+        <v>5.069688258594738</v>
       </c>
       <c r="F28" t="n">
-        <v>4.254085495200172</v>
+        <v>4.254085495200059</v>
       </c>
       <c r="G28" t="n">
-        <v>25.7507542615359</v>
+        <v>25.75075426153578</v>
       </c>
       <c r="H28" t="n">
-        <v>17.64956353630751</v>
+        <v>17.64956353630739</v>
       </c>
       <c r="I28" t="n">
-        <v>4.819637445293639</v>
+        <v>4.819637445293525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.96927323586026</v>
+        <v>20.96927323586015</v>
       </c>
       <c r="S28" t="n">
-        <v>76.37625367085136</v>
+        <v>76.37625367085124</v>
       </c>
       <c r="T28" t="n">
-        <v>85.42814449176801</v>
+        <v>85.4281444917679</v>
       </c>
       <c r="U28" t="n">
-        <v>144.1345763626071</v>
+        <v>144.134576362607</v>
       </c>
       <c r="V28" t="n">
-        <v>111.0314151523348</v>
+        <v>111.0314151523347</v>
       </c>
       <c r="W28" t="n">
-        <v>144.1876409728112</v>
+        <v>144.1876409728111</v>
       </c>
       <c r="X28" t="n">
-        <v>84.23542401770493</v>
+        <v>84.23542401770482</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.8437379531639</v>
+        <v>76.84373795316378</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>241.8114740767907</v>
       </c>
       <c r="C29" t="n">
-        <v>225.0801597643383</v>
+        <v>225.0801597643382</v>
       </c>
       <c r="D29" t="n">
-        <v>203.9314455138387</v>
+        <v>214.699796839994</v>
       </c>
       <c r="E29" t="n">
         <v>241.2130998406831</v>
       </c>
       <c r="F29" t="n">
-        <v>265.3889275659365</v>
+        <v>254.6205762397822</v>
       </c>
       <c r="G29" t="n">
-        <v>272.4283923401343</v>
+        <v>272.4283923401342</v>
       </c>
       <c r="H29" t="n">
         <v>190.8987992704074</v>
       </c>
       <c r="I29" t="n">
-        <v>43.21666626313834</v>
+        <v>43.21666626313827</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.07776677399386</v>
+        <v>52.07776677399379</v>
       </c>
       <c r="T29" t="n">
-        <v>78.77759016166442</v>
+        <v>78.77759016166438</v>
       </c>
       <c r="U29" t="n">
         <v>109.5311126900127</v>
@@ -2852,13 +2852,13 @@
         <v>186.628285607915</v>
       </c>
       <c r="W29" t="n">
-        <v>208.6251810859503</v>
+        <v>208.6251810859502</v>
       </c>
       <c r="X29" t="n">
-        <v>228.9566632165651</v>
+        <v>228.956663216565</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.7821358366315</v>
+        <v>244.7821358366314</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>23.4671896957405</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>29.12064801279666</v>
+        <v>29.12064801279661</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>15.86450067774333</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>14.12849779256945</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2928,10 +2928,10 @@
         <v>224.6388222335922</v>
       </c>
       <c r="V30" t="n">
-        <v>194.6440876330956</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>108.0844108353957</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>38.17875557607948</v>
+        <v>38.17875557607942</v>
       </c>
       <c r="C31" t="n">
-        <v>25.43161701659801</v>
+        <v>25.43161701659795</v>
       </c>
       <c r="D31" t="n">
-        <v>7.100630599915036</v>
+        <v>7.100630599914979</v>
       </c>
       <c r="E31" t="n">
-        <v>5.069688258594852</v>
+        <v>5.069688258594795</v>
       </c>
       <c r="F31" t="n">
-        <v>4.254085495200172</v>
+        <v>4.254085495200115</v>
       </c>
       <c r="G31" t="n">
-        <v>25.7507542615359</v>
+        <v>25.75075426153584</v>
       </c>
       <c r="H31" t="n">
-        <v>17.64956353630751</v>
+        <v>17.64956353630745</v>
       </c>
       <c r="I31" t="n">
-        <v>4.819637445293639</v>
+        <v>4.819637445293582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.96927323586026</v>
+        <v>20.96927323586021</v>
       </c>
       <c r="S31" t="n">
-        <v>76.37625367085136</v>
+        <v>76.3762536708513</v>
       </c>
       <c r="T31" t="n">
-        <v>85.42814449176801</v>
+        <v>85.42814449176795</v>
       </c>
       <c r="U31" t="n">
-        <v>144.1345763626071</v>
+        <v>144.134576362607</v>
       </c>
       <c r="V31" t="n">
         <v>111.0314151523348</v>
@@ -3013,10 +3013,10 @@
         <v>144.1876409728112</v>
       </c>
       <c r="X31" t="n">
-        <v>84.23542401770493</v>
+        <v>84.23542401770487</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.8437379531639</v>
+        <v>76.84373795316384</v>
       </c>
     </row>
     <row r="32">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.90607470205103</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>24.55953301910719</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3120,10 +3120,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.744216734186</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>77.37291145652043</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7794325500455</v>
+        <v>17.31338164175174</v>
       </c>
       <c r="T33" t="n">
         <v>197.2579924358259</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6388222335922</v>
+        <v>92.79129514996065</v>
       </c>
       <c r="V33" t="n">
-        <v>85.44268013136133</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
-        <v>167.561678800434</v>
+        <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.69982338767058</v>
+        <v>26.69982338767056</v>
       </c>
       <c r="U35" t="n">
         <v>57.45334591601886</v>
@@ -3348,22 +3348,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>57.06517707551595</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>77.37291145652043</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T36" t="n">
-        <v>67.0350883553064</v>
+        <v>197.2579924358259</v>
       </c>
       <c r="U36" t="n">
         <v>224.6388222335922</v>
@@ -3408,10 +3408,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
-        <v>204.4616296084783</v>
+        <v>10.47892691988008</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.68844872998784</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>77.37291145652043</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T39" t="n">
         <v>197.2579924358259</v>
       </c>
       <c r="U39" t="n">
-        <v>30.65611954499407</v>
+        <v>224.6388222335922</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5722675675377</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>74.23872552795865</v>
+        <v>10.47892691988008</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.7337073027969</v>
+        <v>189.7337073027968</v>
       </c>
       <c r="C41" t="n">
         <v>173.0023929903444</v>
       </c>
       <c r="D41" t="n">
-        <v>162.6220300660002</v>
+        <v>162.6220300660001</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1353330666893</v>
+        <v>189.1353330666892</v>
       </c>
       <c r="F41" t="n">
-        <v>213.3111607919427</v>
+        <v>213.3111607919426</v>
       </c>
       <c r="G41" t="n">
         <v>220.3506255661404</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8210324964136</v>
+        <v>138.8210324964135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.69982338767058</v>
+        <v>26.69982338767052</v>
       </c>
       <c r="U41" t="n">
-        <v>57.45334591601886</v>
+        <v>57.4533459160188</v>
       </c>
       <c r="V41" t="n">
-        <v>134.5505188339212</v>
+        <v>134.5505188339211</v>
       </c>
       <c r="W41" t="n">
-        <v>156.5474143119564</v>
+        <v>156.5474143119563</v>
       </c>
       <c r="X41" t="n">
-        <v>176.8788964425712</v>
+        <v>176.8788964425711</v>
       </c>
       <c r="Y41" t="n">
         <v>192.7043690626376</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>5.559191533178553</v>
       </c>
       <c r="C42" t="n">
-        <v>71.00594998543426</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3828,16 +3828,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>76.89784721011134</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>56.00664406140186</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.68844872998784</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.29848689685749</v>
+        <v>24.29848689685744</v>
       </c>
       <c r="T43" t="n">
-        <v>33.35037771777415</v>
+        <v>33.35037771777409</v>
       </c>
       <c r="U43" t="n">
-        <v>92.05680958861323</v>
+        <v>92.05680958861318</v>
       </c>
       <c r="V43" t="n">
-        <v>58.95364837834097</v>
+        <v>58.95364837834092</v>
       </c>
       <c r="W43" t="n">
-        <v>92.10987419881735</v>
+        <v>92.10987419881729</v>
       </c>
       <c r="X43" t="n">
-        <v>32.15765724371107</v>
+        <v>32.15765724371101</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.76597117917004</v>
+        <v>24.76597117916998</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.7337073027969</v>
+        <v>189.7337073027968</v>
       </c>
       <c r="C44" t="n">
         <v>173.0023929903444</v>
       </c>
       <c r="D44" t="n">
-        <v>162.6220300660002</v>
+        <v>162.6220300660001</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1353330666893</v>
+        <v>189.1353330666892</v>
       </c>
       <c r="F44" t="n">
-        <v>213.3111607919427</v>
+        <v>213.3111607919426</v>
       </c>
       <c r="G44" t="n">
         <v>220.3506255661404</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8210324964136</v>
+        <v>138.8210324964135</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.69982338767281</v>
+        <v>26.69982338767052</v>
       </c>
       <c r="U44" t="n">
-        <v>57.45334591601886</v>
+        <v>57.4533459160188</v>
       </c>
       <c r="V44" t="n">
-        <v>134.5505188339212</v>
+        <v>134.5505188339211</v>
       </c>
       <c r="W44" t="n">
-        <v>156.5474143119564</v>
+        <v>156.5474143119563</v>
       </c>
       <c r="X44" t="n">
-        <v>176.8788964425712</v>
+        <v>176.8788964425711</v>
       </c>
       <c r="Y44" t="n">
         <v>192.7043690626376</v>
@@ -4056,25 +4056,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>135.744216734186</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7680259483362</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.89784721011134</v>
+        <v>69.45113580464674</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>77.37291145652043</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7794325500455</v>
       </c>
       <c r="T45" t="n">
         <v>197.2579924358259</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6388222335922</v>
+        <v>30.65611954499401</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>130.1346495099421</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.68844872998784</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.29848689685749</v>
+        <v>24.29848689685744</v>
       </c>
       <c r="T46" t="n">
-        <v>33.35037771777415</v>
+        <v>33.35037771777409</v>
       </c>
       <c r="U46" t="n">
-        <v>92.05680958861323</v>
+        <v>92.05680958861318</v>
       </c>
       <c r="V46" t="n">
-        <v>58.95364837834097</v>
+        <v>58.95364837834092</v>
       </c>
       <c r="W46" t="n">
-        <v>92.10987419881735</v>
+        <v>92.10987419881729</v>
       </c>
       <c r="X46" t="n">
-        <v>32.15765724371107</v>
+        <v>32.15765724371101</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.76597117917004</v>
+        <v>24.76597117916998</v>
       </c>
     </row>
   </sheetData>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -4586,31 +4586,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4653,25 +4653,25 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>9.185896487906573e-13</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.368789526168257e-12</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35964864507468e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.003078866035046e-13</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -4735,40 +4735,40 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5607336407628</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="D8" t="n">
         <v>23.5607336407628</v>
@@ -4805,19 +4805,19 @@
         <v>1.188381232306474</v>
       </c>
       <c r="K8" t="n">
-        <v>1.188381232306474</v>
+        <v>11.28146113382036</v>
       </c>
       <c r="L8" t="n">
-        <v>15.89459898209909</v>
+        <v>25.98767888361298</v>
       </c>
       <c r="M8" t="n">
-        <v>30.6008167318917</v>
+        <v>40.69389663340559</v>
       </c>
       <c r="N8" t="n">
-        <v>30.6008167318917</v>
+        <v>55.40011438319821</v>
       </c>
       <c r="O8" t="n">
-        <v>40.69389663340559</v>
+        <v>55.40011438319821</v>
       </c>
       <c r="P8" t="n">
         <v>55.40011438319821</v>
@@ -4826,28 +4826,28 @@
         <v>59.4190616153237</v>
       </c>
       <c r="R8" t="n">
-        <v>53.57036071920911</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="S8" t="n">
-        <v>38.56554717998596</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="T8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="V8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="W8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="X8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.5607336407628</v>
+        <v>44.41424807610054</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="C9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="D9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="E9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="F9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="G9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="H9" t="n">
-        <v>16.19319477152963</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="I9" t="n">
         <v>1.188381232306474</v>
       </c>
       <c r="J9" t="n">
-        <v>8.581692078791374</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="K9" t="n">
-        <v>8.581692078791374</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="L9" t="n">
-        <v>23.28790982858399</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="M9" t="n">
-        <v>30.00662611573847</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="N9" t="n">
-        <v>30.00662611573847</v>
+        <v>15.89459898209909</v>
       </c>
       <c r="O9" t="n">
-        <v>44.71284386553108</v>
+        <v>30.6008167318917</v>
       </c>
       <c r="P9" t="n">
-        <v>59.4190616153237</v>
+        <v>45.30703448168432</v>
       </c>
       <c r="Q9" t="n">
         <v>59.4190616153237</v>
       </c>
       <c r="R9" t="n">
-        <v>46.20282184997595</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="S9" t="n">
-        <v>31.19800831075279</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="T9" t="n">
-        <v>16.19319477152963</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="U9" t="n">
-        <v>16.19319477152963</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="V9" t="n">
         <v>16.19319477152963</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="C10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="D10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="E10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="F10" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="G10" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="H10" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="I10" t="n">
         <v>1.188381232306474</v>
@@ -4966,7 +4966,7 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L10" t="n">
-        <v>15.89459898209909</v>
+        <v>9.239606686248854</v>
       </c>
       <c r="M10" t="n">
         <v>23.94582443604147</v>
@@ -4990,22 +4990,22 @@
         <v>59.4190616153237</v>
       </c>
       <c r="T10" t="n">
-        <v>46.20282184997595</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U10" t="n">
-        <v>46.20282184997595</v>
+        <v>44.41424807610054</v>
       </c>
       <c r="V10" t="n">
-        <v>31.19800831075279</v>
+        <v>29.40943453687738</v>
       </c>
       <c r="W10" t="n">
-        <v>31.19800831075279</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="X10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19319477152963</v>
+        <v>14.40462099765423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>405.6718943379569</v>
+        <v>517.8322239473273</v>
       </c>
       <c r="C11" t="n">
-        <v>405.6718943379569</v>
+        <v>270.6652951479799</v>
       </c>
       <c r="D11" t="n">
-        <v>168.9901806137045</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="E11" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="F11" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="G11" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H11" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I11" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J11" t="n">
         <v>77.14466003095674</v>
@@ -5051,7 +5051,7 @@
         <v>879.1444369261632</v>
       </c>
       <c r="N11" t="n">
-        <v>1200.106791428492</v>
+        <v>1200.106791428493</v>
       </c>
       <c r="O11" t="n">
         <v>1457.054090001418</v>
@@ -5060,31 +5060,31 @@
         <v>1639.413871479554</v>
       </c>
       <c r="Q11" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R11" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="S11" t="n">
         <v>1626.762034296473</v>
       </c>
       <c r="T11" t="n">
-        <v>1626.762034296473</v>
+        <v>1527.37547883316</v>
       </c>
       <c r="U11" t="n">
-        <v>1626.762034296473</v>
+        <v>1396.924759199798</v>
       </c>
       <c r="V11" t="n">
-        <v>1418.435382422806</v>
+        <v>1188.598107326131</v>
       </c>
       <c r="W11" t="n">
-        <v>1187.889644207688</v>
+        <v>1032.982059086102</v>
       </c>
       <c r="X11" t="n">
-        <v>936.8070553555867</v>
+        <v>781.8994702340003</v>
       </c>
       <c r="Y11" t="n">
-        <v>669.73914062463</v>
+        <v>781.8994702340003</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>535.6236297963073</v>
+        <v>299.9053444101932</v>
       </c>
       <c r="C12" t="n">
-        <v>486.3956017560929</v>
+        <v>250.6773163699788</v>
       </c>
       <c r="D12" t="n">
-        <v>338.8072951150368</v>
+        <v>226.614096766891</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3862466747203</v>
+        <v>192.5296548077141</v>
       </c>
       <c r="F12" t="n">
-        <v>279.9555437293055</v>
+        <v>171.0989518622993</v>
       </c>
       <c r="G12" t="n">
-        <v>142.8401732907338</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H12" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I12" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J12" t="n">
-        <v>33.98358142372763</v>
+        <v>67.47206934108509</v>
       </c>
       <c r="K12" t="n">
-        <v>33.98358142372763</v>
+        <v>251.3148423920086</v>
       </c>
       <c r="L12" t="n">
-        <v>342.0324843612376</v>
+        <v>559.3637453295186</v>
       </c>
       <c r="M12" t="n">
-        <v>754.3112184359576</v>
+        <v>971.6424794042387</v>
       </c>
       <c r="N12" t="n">
-        <v>1174.858038554587</v>
+        <v>1392.189299522868</v>
       </c>
       <c r="O12" t="n">
-        <v>1447.865840137344</v>
+        <v>1582.743764064626</v>
       </c>
       <c r="P12" t="n">
-        <v>1699.179071186381</v>
+        <v>1582.743764064626</v>
       </c>
       <c r="Q12" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R12" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="S12" t="n">
-        <v>1533.74530093381</v>
+        <v>1533.745300933811</v>
       </c>
       <c r="T12" t="n">
-        <v>1458.019890561853</v>
+        <v>1334.494803523885</v>
       </c>
       <c r="U12" t="n">
-        <v>1354.637076353769</v>
+        <v>1118.918790967655</v>
       </c>
       <c r="V12" t="n">
-        <v>1120.38583287937</v>
+        <v>884.6675474932556</v>
       </c>
       <c r="W12" t="n">
-        <v>867.871341212703</v>
+        <v>632.1530558265889</v>
       </c>
       <c r="X12" t="n">
-        <v>661.3444426182805</v>
+        <v>549.1512442701348</v>
       </c>
       <c r="Y12" t="n">
-        <v>579.1410938798994</v>
+        <v>466.9478955317537</v>
       </c>
     </row>
     <row r="13">
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.6620408606511</v>
+        <v>263.6620408606512</v>
       </c>
       <c r="C13" t="n">
         <v>218.1603067559909</v>
@@ -5191,13 +5191,13 @@
         <v>96.30620816679038</v>
       </c>
       <c r="H13" t="n">
-        <v>58.66513414323194</v>
+        <v>58.66513414323195</v>
       </c>
       <c r="I13" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J13" t="n">
-        <v>83.47133823761044</v>
+        <v>83.47133823761047</v>
       </c>
       <c r="K13" t="n">
         <v>216.8146451042495</v>
@@ -5206,43 +5206,43 @@
         <v>409.3947238383923</v>
       </c>
       <c r="M13" t="n">
-        <v>616.4551414932521</v>
+        <v>616.4551414932522</v>
       </c>
       <c r="N13" t="n">
-        <v>826.6120882970226</v>
+        <v>826.6120882970228</v>
       </c>
       <c r="O13" t="n">
         <v>1014.631472492835</v>
       </c>
       <c r="P13" t="n">
-        <v>1169.765313183538</v>
+        <v>1169.765313183539</v>
       </c>
       <c r="Q13" t="n">
         <v>1231.259130917542</v>
       </c>
       <c r="R13" t="n">
-        <v>1190.264814773222</v>
+        <v>1190.264814773223</v>
       </c>
       <c r="S13" t="n">
         <v>1093.303851724872</v>
       </c>
       <c r="T13" t="n">
-        <v>987.1995646149894</v>
+        <v>987.1995646149899</v>
       </c>
       <c r="U13" t="n">
-        <v>821.7958513729466</v>
+        <v>821.7958513729467</v>
       </c>
       <c r="V13" t="n">
-        <v>689.829674706936</v>
+        <v>689.8296747069361</v>
       </c>
       <c r="W13" t="n">
-        <v>524.372360848525</v>
+        <v>524.3723608485252</v>
       </c>
       <c r="X13" t="n">
-        <v>419.4728418942618</v>
+        <v>419.472841894262</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.039672500141</v>
+        <v>322.0396725001413</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>680.3262939593396</v>
+        <v>592.4398356407465</v>
       </c>
       <c r="C14" t="n">
-        <v>680.3262939593396</v>
+        <v>592.4398356407465</v>
       </c>
       <c r="D14" t="n">
-        <v>680.3262939593396</v>
+        <v>592.4398356407465</v>
       </c>
       <c r="E14" t="n">
-        <v>680.3262939593396</v>
+        <v>328.977007774384</v>
       </c>
       <c r="F14" t="n">
-        <v>392.4434380876709</v>
+        <v>328.977007774384</v>
       </c>
       <c r="G14" t="n">
-        <v>97.45001173701442</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H14" t="n">
-        <v>97.45001173701442</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I14" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J14" t="n">
-        <v>77.1446600309568</v>
+        <v>77.14466003095674</v>
       </c>
       <c r="K14" t="n">
-        <v>264.1085212393733</v>
+        <v>264.1085212393732</v>
       </c>
       <c r="L14" t="n">
-        <v>548.0228016670682</v>
+        <v>548.0228016670679</v>
       </c>
       <c r="M14" t="n">
-        <v>879.1444369261635</v>
+        <v>879.1444369261632</v>
       </c>
       <c r="N14" t="n">
         <v>1200.106791428493</v>
@@ -5294,13 +5294,13 @@
         <v>1457.054090001418</v>
       </c>
       <c r="P14" t="n">
-        <v>1639.413871479555</v>
+        <v>1639.413871479554</v>
       </c>
       <c r="Q14" t="n">
-        <v>1699.179071186383</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R14" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="S14" t="n">
         <v>1626.762034296473</v>
@@ -5312,16 +5312,16 @@
         <v>1396.924759199798</v>
       </c>
       <c r="V14" t="n">
-        <v>1396.924759199798</v>
+        <v>1188.598107326131</v>
       </c>
       <c r="W14" t="n">
-        <v>1166.37902098468</v>
+        <v>958.0523691110142</v>
       </c>
       <c r="X14" t="n">
-        <v>915.2964321325787</v>
+        <v>706.9697802589127</v>
       </c>
       <c r="Y14" t="n">
-        <v>915.2964321325787</v>
+        <v>706.9697802589127</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>659.1487168342758</v>
+        <v>299.905344410193</v>
       </c>
       <c r="C15" t="n">
-        <v>486.395601756093</v>
+        <v>250.6773163699786</v>
       </c>
       <c r="D15" t="n">
-        <v>413.1452817754238</v>
+        <v>226.6140967668909</v>
       </c>
       <c r="E15" t="n">
-        <v>379.0608398162469</v>
+        <v>192.5296548077141</v>
       </c>
       <c r="F15" t="n">
-        <v>234.1050498328638</v>
+        <v>171.0989518622993</v>
       </c>
       <c r="G15" t="n">
-        <v>220.5147664322604</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H15" t="n">
-        <v>111.6581745652542</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I15" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J15" t="n">
-        <v>67.47206934108513</v>
+        <v>67.47206934108509</v>
       </c>
       <c r="K15" t="n">
-        <v>251.3148423920088</v>
+        <v>251.3148423920086</v>
       </c>
       <c r="L15" t="n">
-        <v>559.3637453295188</v>
+        <v>559.3637453295186</v>
       </c>
       <c r="M15" t="n">
-        <v>971.6424794042389</v>
+        <v>971.6424794042387</v>
       </c>
       <c r="N15" t="n">
-        <v>997.8350665584085</v>
+        <v>997.8350665584094</v>
       </c>
       <c r="O15" t="n">
-        <v>1331.430533015587</v>
+        <v>1331.430533015588</v>
       </c>
       <c r="P15" t="n">
-        <v>1582.743764064625</v>
+        <v>1582.743764064626</v>
       </c>
       <c r="Q15" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R15" t="n">
-        <v>1699.179071186381</v>
+        <v>1621.024615169694</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.270387971779</v>
+        <v>1455.590844917123</v>
       </c>
       <c r="T15" t="n">
-        <v>1581.544977599822</v>
+        <v>1256.340347507198</v>
       </c>
       <c r="U15" t="n">
-        <v>1478.162163391737</v>
+        <v>1029.432446261145</v>
       </c>
       <c r="V15" t="n">
-        <v>1243.910919917338</v>
+        <v>795.1812027867461</v>
       </c>
       <c r="W15" t="n">
-        <v>991.3964282506714</v>
+        <v>632.1530558265886</v>
       </c>
       <c r="X15" t="n">
-        <v>908.3946166942173</v>
+        <v>549.1512442701345</v>
       </c>
       <c r="Y15" t="n">
-        <v>702.6661809178678</v>
+        <v>343.422808493785</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.6620408606514</v>
+        <v>263.6620408606512</v>
       </c>
       <c r="C16" t="n">
-        <v>218.1603067559912</v>
+        <v>218.160306755991</v>
       </c>
       <c r="D16" t="n">
-        <v>191.1747205469703</v>
+        <v>191.1747205469702</v>
       </c>
       <c r="E16" t="n">
-        <v>166.2405912483739</v>
+        <v>166.2405912483738</v>
       </c>
       <c r="F16" t="n">
-        <v>142.1303031249236</v>
+        <v>142.1303031249234</v>
       </c>
       <c r="G16" t="n">
-        <v>96.30620816679073</v>
+        <v>96.30620816679061</v>
       </c>
       <c r="H16" t="n">
-        <v>58.66513414323192</v>
+        <v>58.6651341432319</v>
       </c>
       <c r="I16" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J16" t="n">
         <v>83.4713382376105</v>
@@ -5440,46 +5440,46 @@
         <v>216.8146451042496</v>
       </c>
       <c r="L16" t="n">
-        <v>409.3947238383923</v>
+        <v>409.3947238383925</v>
       </c>
       <c r="M16" t="n">
-        <v>616.4551414932523</v>
+        <v>616.4551414932521</v>
       </c>
       <c r="N16" t="n">
-        <v>826.6120882970229</v>
+        <v>826.6120882970226</v>
       </c>
       <c r="O16" t="n">
         <v>1014.631472492835</v>
       </c>
       <c r="P16" t="n">
-        <v>1169.765313183539</v>
+        <v>1169.765313183538</v>
       </c>
       <c r="Q16" t="n">
-        <v>1231.259130917542</v>
+        <v>1231.259130917541</v>
       </c>
       <c r="R16" t="n">
-        <v>1190.264814773223</v>
+        <v>1190.264814773222</v>
       </c>
       <c r="S16" t="n">
         <v>1093.303851724872</v>
       </c>
       <c r="T16" t="n">
-        <v>987.1995646149899</v>
+        <v>987.1995646149896</v>
       </c>
       <c r="U16" t="n">
-        <v>821.7958513729468</v>
+        <v>821.7958513729465</v>
       </c>
       <c r="V16" t="n">
-        <v>689.8296747069362</v>
+        <v>689.829674706936</v>
       </c>
       <c r="W16" t="n">
-        <v>524.3723608485253</v>
+        <v>524.372360848525</v>
       </c>
       <c r="X16" t="n">
-        <v>419.4728418942622</v>
+        <v>419.4728418942618</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.0396725001414</v>
+        <v>322.0396725001411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2249238341606</v>
+        <v>962.2249238341603</v>
       </c>
       <c r="C17" t="n">
-        <v>817.4891137414224</v>
+        <v>817.4891137414222</v>
       </c>
       <c r="D17" t="n">
-        <v>683.2385187237796</v>
+        <v>683.2385187237794</v>
       </c>
       <c r="E17" t="n">
-        <v>522.2068095640267</v>
+        <v>522.2068095640263</v>
       </c>
       <c r="F17" t="n">
-        <v>336.7550723989673</v>
+        <v>336.7550723989669</v>
       </c>
       <c r="G17" t="n">
-        <v>144.1927647549205</v>
+        <v>144.1927647549193</v>
       </c>
       <c r="H17" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I17" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J17" t="n">
-        <v>77.1446600309564</v>
+        <v>77.14466003095673</v>
       </c>
       <c r="K17" t="n">
-        <v>264.1085212393729</v>
+        <v>264.1085212393731</v>
       </c>
       <c r="L17" t="n">
         <v>548.0228016670678</v>
       </c>
       <c r="M17" t="n">
-        <v>879.1444369261629</v>
+        <v>879.1444369261631</v>
       </c>
       <c r="N17" t="n">
         <v>1200.106791428492</v>
@@ -5534,16 +5534,16 @@
         <v>1639.413871479554</v>
       </c>
       <c r="Q17" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R17" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="S17" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="T17" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="U17" t="n">
         <v>1671.159470259629</v>
@@ -5555,7 +5555,7 @@
         <v>1437.149317584064</v>
       </c>
       <c r="X17" t="n">
-        <v>1288.497847438571</v>
+        <v>1288.497847438572</v>
       </c>
       <c r="Y17" t="n">
         <v>1123.861051414224</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>650.1742334952714</v>
+        <v>206.7366965019104</v>
       </c>
       <c r="C18" t="n">
-        <v>650.1742334952714</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="D18" t="n">
-        <v>502.5859268542154</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="E18" t="n">
-        <v>502.5859268542154</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="F18" t="n">
-        <v>357.6301368708322</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="G18" t="n">
-        <v>220.5147664322605</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H18" t="n">
-        <v>111.6581745652542</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I18" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J18" t="n">
-        <v>67.47206934108507</v>
+        <v>67.47206934108509</v>
       </c>
       <c r="K18" t="n">
-        <v>67.47206934108507</v>
+        <v>251.3148423920086</v>
       </c>
       <c r="L18" t="n">
-        <v>281.4448194868156</v>
+        <v>559.3637453295186</v>
       </c>
       <c r="M18" t="n">
-        <v>693.7235535615356</v>
+        <v>971.6424794042387</v>
       </c>
       <c r="N18" t="n">
-        <v>1114.270373680165</v>
+        <v>1392.189299522868</v>
       </c>
       <c r="O18" t="n">
         <v>1447.865840137344</v>
       </c>
       <c r="P18" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="Q18" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R18" t="n">
-        <v>1699.179071186381</v>
+        <v>1621.024615169694</v>
       </c>
       <c r="S18" t="n">
-        <v>1533.74530093381</v>
+        <v>1455.590844917123</v>
       </c>
       <c r="T18" t="n">
-        <v>1334.494803523885</v>
+        <v>1256.340347507198</v>
       </c>
       <c r="U18" t="n">
-        <v>1107.586902277832</v>
+        <v>1029.432446261145</v>
       </c>
       <c r="V18" t="n">
-        <v>1088.987853788132</v>
+        <v>871.5065225393491</v>
       </c>
       <c r="W18" t="n">
-        <v>1062.429567866043</v>
+        <v>618.9920308726824</v>
       </c>
       <c r="X18" t="n">
-        <v>855.902669271621</v>
+        <v>412.4651322782599</v>
       </c>
       <c r="Y18" t="n">
-        <v>650.1742334952714</v>
+        <v>206.7366965019104</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="C19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="D19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="E19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="F19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="G19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="K19" t="n">
-        <v>46.25995048445384</v>
+        <v>46.25995048445385</v>
       </c>
       <c r="L19" t="n">
         <v>117.7730914126839</v>
@@ -5704,19 +5704,19 @@
         <v>390.2027611309057</v>
       </c>
       <c r="U19" t="n">
-        <v>129.013234782584</v>
+        <v>327.2301665954719</v>
       </c>
       <c r="V19" t="n">
-        <v>99.47817682318288</v>
+        <v>297.6951086360708</v>
       </c>
       <c r="W19" t="n">
-        <v>36.45198167138137</v>
+        <v>36.45198167138143</v>
       </c>
       <c r="X19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.2249238341598</v>
+        <v>962.224923834161</v>
       </c>
       <c r="C20" t="n">
-        <v>817.4891137414218</v>
+        <v>817.4891137414231</v>
       </c>
       <c r="D20" t="n">
-        <v>683.238518723779</v>
+        <v>683.2385187237803</v>
       </c>
       <c r="E20" t="n">
-        <v>522.206809564026</v>
+        <v>522.2068095640273</v>
       </c>
       <c r="F20" t="n">
-        <v>336.7550723989665</v>
+        <v>336.7550723989664</v>
       </c>
       <c r="G20" t="n">
         <v>144.1927647549193</v>
       </c>
       <c r="H20" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I20" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J20" t="n">
-        <v>77.14466003095669</v>
+        <v>77.14466003095686</v>
       </c>
       <c r="K20" t="n">
-        <v>264.1085212393731</v>
+        <v>264.1085212393734</v>
       </c>
       <c r="L20" t="n">
-        <v>548.0228016670676</v>
+        <v>548.0228016670681</v>
       </c>
       <c r="M20" t="n">
-        <v>879.1444369261628</v>
+        <v>879.1444369261634</v>
       </c>
       <c r="N20" t="n">
-        <v>1200.106791428492</v>
+        <v>1200.106791428493</v>
       </c>
       <c r="O20" t="n">
         <v>1457.054090001418</v>
@@ -5771,31 +5771,31 @@
         <v>1639.413871479554</v>
       </c>
       <c r="Q20" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R20" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="S20" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="T20" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="U20" t="n">
-        <v>1671.159470259628</v>
+        <v>1671.15947025963</v>
       </c>
       <c r="V20" t="n">
-        <v>1565.26393709257</v>
+        <v>1565.263937092572</v>
       </c>
       <c r="W20" t="n">
-        <v>1437.149317584063</v>
+        <v>1437.149317584064</v>
       </c>
       <c r="X20" t="n">
-        <v>1288.497847438571</v>
+        <v>1288.497847438572</v>
       </c>
       <c r="Y20" t="n">
-        <v>1123.861051414223</v>
+        <v>1123.861051414225</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>569.114966723065</v>
+        <v>463.6430484867386</v>
       </c>
       <c r="C21" t="n">
-        <v>396.3618516448821</v>
+        <v>463.6430484867386</v>
       </c>
       <c r="D21" t="n">
-        <v>248.773545003826</v>
+        <v>316.0547418456825</v>
       </c>
       <c r="E21" t="n">
-        <v>248.773545003826</v>
+        <v>316.0547418456825</v>
       </c>
       <c r="F21" t="n">
-        <v>248.773545003826</v>
+        <v>171.0989518622993</v>
       </c>
       <c r="G21" t="n">
-        <v>111.6581745652542</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6581745652542</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I21" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J21" t="n">
-        <v>33.98358142372763</v>
+        <v>67.47206934108509</v>
       </c>
       <c r="K21" t="n">
-        <v>217.8263544746512</v>
+        <v>251.3148423920086</v>
       </c>
       <c r="L21" t="n">
-        <v>217.8263544746512</v>
+        <v>251.3148423920086</v>
       </c>
       <c r="M21" t="n">
-        <v>577.2882464397795</v>
+        <v>663.5935764667287</v>
       </c>
       <c r="N21" t="n">
-        <v>997.8350665584089</v>
+        <v>1084.140396585358</v>
       </c>
       <c r="O21" t="n">
         <v>1331.430533015588</v>
       </c>
       <c r="P21" t="n">
-        <v>1582.743764064625</v>
+        <v>1582.743764064626</v>
       </c>
       <c r="Q21" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.179071186382</v>
       </c>
       <c r="R21" t="n">
         <v>1621.024615169694</v>
       </c>
       <c r="S21" t="n">
-        <v>1621.024615169694</v>
+        <v>1455.590844917123</v>
       </c>
       <c r="T21" t="n">
-        <v>1421.774117759769</v>
+        <v>1455.590844917123</v>
       </c>
       <c r="U21" t="n">
-        <v>1420.822422258294</v>
+        <v>1228.68294367107</v>
       </c>
       <c r="V21" t="n">
-        <v>1195.198908105715</v>
+        <v>994.4317001966713</v>
       </c>
       <c r="W21" t="n">
-        <v>942.6844164390479</v>
+        <v>836.4140353846486</v>
       </c>
       <c r="X21" t="n">
-        <v>736.1575178446254</v>
+        <v>836.4140353846486</v>
       </c>
       <c r="Y21" t="n">
-        <v>736.1575178446254</v>
+        <v>630.6855996082991</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.29779455915698</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="C22" t="n">
-        <v>50.29779455915698</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="D22" t="n">
-        <v>50.29779455915698</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="E22" t="n">
-        <v>50.29779455915698</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="F22" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="G22" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="H22" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="I22" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="J22" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="K22" t="n">
-        <v>46.25995048445384</v>
+        <v>46.25995048445385</v>
       </c>
       <c r="L22" t="n">
         <v>117.7730914126839</v>
@@ -5935,25 +5935,25 @@
         <v>393.8759295341787</v>
       </c>
       <c r="S22" t="n">
-        <v>393.8759295341787</v>
+        <v>195.658997721291</v>
       </c>
       <c r="T22" t="n">
-        <v>390.2027611309057</v>
+        <v>191.9858293180179</v>
       </c>
       <c r="U22" t="n">
-        <v>327.2301665954719</v>
+        <v>129.0132347825842</v>
       </c>
       <c r="V22" t="n">
-        <v>297.6951086360708</v>
+        <v>99.47817682318299</v>
       </c>
       <c r="W22" t="n">
-        <v>234.6689134842692</v>
+        <v>36.45198167138143</v>
       </c>
       <c r="X22" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372764</v>
       </c>
       <c r="Y22" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372764</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.22492383416</v>
+        <v>962.2249238341598</v>
       </c>
       <c r="C23" t="n">
-        <v>817.489113741422</v>
+        <v>817.4891137414215</v>
       </c>
       <c r="D23" t="n">
-        <v>683.2385187237792</v>
+        <v>683.2385187237787</v>
       </c>
       <c r="E23" t="n">
-        <v>522.2068095640261</v>
+        <v>522.2068095640257</v>
       </c>
       <c r="F23" t="n">
-        <v>336.7550723989666</v>
+        <v>336.7550723989661</v>
       </c>
       <c r="G23" t="n">
         <v>144.1927647549193</v>
       </c>
       <c r="H23" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="I23" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="J23" t="n">
         <v>77.14466003095671</v>
@@ -6005,34 +6005,34 @@
         <v>1457.054090001418</v>
       </c>
       <c r="P23" t="n">
-        <v>1639.413871479554</v>
+        <v>1639.413871479553</v>
       </c>
       <c r="Q23" t="n">
-        <v>1699.179071186382</v>
+        <v>1699.17907118638</v>
       </c>
       <c r="R23" t="n">
-        <v>1699.179071186382</v>
+        <v>1699.17907118638</v>
       </c>
       <c r="S23" t="n">
-        <v>1699.179071186382</v>
+        <v>1699.17907118638</v>
       </c>
       <c r="T23" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.17907118638</v>
       </c>
       <c r="U23" t="n">
-        <v>1671.159470259629</v>
+        <v>1671.159470259628</v>
       </c>
       <c r="V23" t="n">
-        <v>1565.263937092571</v>
+        <v>1565.26393709257</v>
       </c>
       <c r="W23" t="n">
-        <v>1437.149317584064</v>
+        <v>1437.149317584063</v>
       </c>
       <c r="X23" t="n">
         <v>1288.497847438571</v>
       </c>
       <c r="Y23" t="n">
-        <v>1123.861051414224</v>
+        <v>1123.861051414223</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>675.3390419323982</v>
+        <v>130.411376749306</v>
       </c>
       <c r="C24" t="n">
-        <v>502.5859268542154</v>
+        <v>130.411376749306</v>
       </c>
       <c r="D24" t="n">
-        <v>502.5859268542154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="E24" t="n">
-        <v>502.5859268542154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="F24" t="n">
-        <v>357.6301368708322</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="G24" t="n">
-        <v>220.5147664322605</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="H24" t="n">
-        <v>111.6581745652542</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="I24" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="J24" t="n">
-        <v>67.47206934108507</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="K24" t="n">
-        <v>67.47206934108507</v>
+        <v>217.8263544746512</v>
       </c>
       <c r="L24" t="n">
-        <v>375.520972278595</v>
+        <v>525.8752574121611</v>
       </c>
       <c r="M24" t="n">
-        <v>693.7235535615356</v>
+        <v>577.2882464397788</v>
       </c>
       <c r="N24" t="n">
-        <v>1114.270373680165</v>
+        <v>997.835066558408</v>
       </c>
       <c r="O24" t="n">
-        <v>1447.865840137344</v>
+        <v>1331.430533015587</v>
       </c>
       <c r="P24" t="n">
-        <v>1699.179071186381</v>
+        <v>1582.743764064624</v>
       </c>
       <c r="Q24" t="n">
-        <v>1699.179071186381</v>
+        <v>1699.17907118638</v>
       </c>
       <c r="R24" t="n">
-        <v>1699.179071186381</v>
+        <v>1621.024615169693</v>
       </c>
       <c r="S24" t="n">
-        <v>1699.179071186381</v>
+        <v>1455.590844917122</v>
       </c>
       <c r="T24" t="n">
-        <v>1499.928573776456</v>
+        <v>1256.340347507197</v>
       </c>
       <c r="U24" t="n">
-        <v>1498.976878274981</v>
+        <v>1029.432446261144</v>
       </c>
       <c r="V24" t="n">
-        <v>1264.725634800582</v>
+        <v>795.1812027867447</v>
       </c>
       <c r="W24" t="n">
-        <v>1087.59437630317</v>
+        <v>542.666711120078</v>
       </c>
       <c r="X24" t="n">
-        <v>881.0674777087478</v>
+        <v>336.1398125256555</v>
       </c>
       <c r="Y24" t="n">
-        <v>675.3390419323982</v>
+        <v>130.411376749306</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="C25" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="D25" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="E25" t="n">
-        <v>181.6189565851463</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="F25" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="G25" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="H25" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="I25" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="J25" t="n">
-        <v>33.98358142372763</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="K25" t="n">
-        <v>46.25995048445384</v>
+        <v>46.25995048445382</v>
       </c>
       <c r="L25" t="n">
         <v>117.7730914126839</v>
@@ -6157,10 +6157,10 @@
         <v>203.7665712616309</v>
       </c>
       <c r="N25" t="n">
-        <v>292.8565802594887</v>
+        <v>292.8565802594886</v>
       </c>
       <c r="O25" t="n">
-        <v>359.8090266493882</v>
+        <v>359.8090266493881</v>
       </c>
       <c r="P25" t="n">
         <v>393.8759295341787</v>
@@ -6175,22 +6175,22 @@
         <v>393.8759295341787</v>
       </c>
       <c r="T25" t="n">
-        <v>390.2027611309057</v>
+        <v>390.2027611309056</v>
       </c>
       <c r="U25" t="n">
         <v>327.2301665954719</v>
       </c>
       <c r="V25" t="n">
-        <v>297.6951086360708</v>
+        <v>99.47817682318296</v>
       </c>
       <c r="W25" t="n">
-        <v>234.6689134842692</v>
+        <v>36.45198167138141</v>
       </c>
       <c r="X25" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372761</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.2005132366154</v>
+        <v>33.98358142372761</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>1514.30766310809</v>
       </c>
       <c r="C26" t="n">
-        <v>1286.953966376435</v>
+        <v>1286.953966376436</v>
       </c>
       <c r="D26" t="n">
-        <v>1070.085484719875</v>
+        <v>1070.085484719876</v>
       </c>
       <c r="E26" t="n">
-        <v>826.4358889212056</v>
+        <v>826.4358889212061</v>
       </c>
       <c r="F26" t="n">
-        <v>569.2433876688996</v>
+        <v>558.3662651172299</v>
       </c>
       <c r="G26" t="n">
-        <v>294.0631933859357</v>
+        <v>294.0631933859355</v>
       </c>
       <c r="H26" t="n">
-        <v>101.2361234158273</v>
+        <v>101.2361234158271</v>
       </c>
       <c r="I26" t="n">
-        <v>57.58292517023297</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J26" t="n">
-        <v>241.229890332922</v>
+        <v>241.2298903329207</v>
       </c>
       <c r="K26" t="n">
-        <v>568.6796380967967</v>
+        <v>568.6796380967959</v>
       </c>
       <c r="L26" t="n">
-        <v>993.0798050799497</v>
+        <v>993.079805079949</v>
       </c>
       <c r="M26" t="n">
         <v>1464.687326894503</v>
@@ -6254,10 +6254,10 @@
         <v>2826.542453689432</v>
       </c>
       <c r="T26" t="n">
-        <v>2746.969130293812</v>
+        <v>2746.969130293811</v>
       </c>
       <c r="U26" t="n">
-        <v>2636.331642728143</v>
+        <v>2636.331642728142</v>
       </c>
       <c r="V26" t="n">
         <v>2447.818222922168</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>829.3797969325133</v>
+        <v>477.5192956322177</v>
       </c>
       <c r="C27" t="n">
-        <v>656.6266818543304</v>
+        <v>329.9165044475017</v>
       </c>
       <c r="D27" t="n">
-        <v>509.0383752132743</v>
+        <v>325.6665169121066</v>
       </c>
       <c r="E27" t="n">
-        <v>351.4288462161289</v>
+        <v>311.3953070206223</v>
       </c>
       <c r="F27" t="n">
-        <v>206.4730562327458</v>
+        <v>166.4395170372392</v>
       </c>
       <c r="G27" t="n">
         <v>166.4395170372392</v>
       </c>
       <c r="H27" t="n">
-        <v>57.58292517023297</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="I27" t="n">
-        <v>57.58292517023297</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J27" t="n">
-        <v>91.07141308759043</v>
+        <v>91.0714130875904</v>
       </c>
       <c r="K27" t="n">
         <v>274.914186138514</v>
@@ -6327,28 +6327,28 @@
         <v>2135.175085174165</v>
       </c>
       <c r="R27" t="n">
-        <v>2057.020629157478</v>
+        <v>2135.175085174165</v>
       </c>
       <c r="S27" t="n">
-        <v>2034.925178010568</v>
+        <v>1969.741314921594</v>
       </c>
       <c r="T27" t="n">
-        <v>1835.674680600643</v>
+        <v>1770.490817511669</v>
       </c>
       <c r="U27" t="n">
-        <v>1608.76677935459</v>
+        <v>1543.582916265616</v>
       </c>
       <c r="V27" t="n">
-        <v>1517.853854985852</v>
+        <v>1309.331672791217</v>
       </c>
       <c r="W27" t="n">
-        <v>1265.339363319185</v>
+        <v>1056.81718112455</v>
       </c>
       <c r="X27" t="n">
-        <v>1058.812464724762</v>
+        <v>850.2902825301277</v>
       </c>
       <c r="Y27" t="n">
-        <v>996.4223480540737</v>
+        <v>644.5618467537781</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.5687601333088</v>
+        <v>148.568760133308</v>
       </c>
       <c r="C28" t="n">
-        <v>122.8802580963412</v>
+        <v>122.8802580963405</v>
       </c>
       <c r="D28" t="n">
-        <v>115.7079039550128</v>
+        <v>115.7079039550123</v>
       </c>
       <c r="E28" t="n">
-        <v>110.5870067241089</v>
+        <v>110.5870067241085</v>
       </c>
       <c r="F28" t="n">
-        <v>106.2899506683512</v>
+        <v>106.2899506683509</v>
       </c>
       <c r="G28" t="n">
-        <v>80.27908777791089</v>
+        <v>80.27908777791066</v>
       </c>
       <c r="H28" t="n">
-        <v>62.45124582204473</v>
+        <v>62.4512458220446</v>
       </c>
       <c r="I28" t="n">
-        <v>57.58292517023297</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J28" t="n">
-        <v>57.58292517023297</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3451807864175</v>
+        <v>210.3451807864176</v>
       </c>
       <c r="L28" t="n">
-        <v>380.7721503485551</v>
+        <v>281.8583217146476</v>
       </c>
       <c r="M28" t="n">
-        <v>466.7656301975021</v>
+        <v>367.8518015635947</v>
       </c>
       <c r="N28" t="n">
-        <v>696.3415257508182</v>
+        <v>555.8556391953578</v>
       </c>
       <c r="O28" t="n">
-        <v>903.779858696176</v>
+        <v>763.2939721407157</v>
       </c>
       <c r="P28" t="n">
-        <v>937.8467615809666</v>
+        <v>937.8467615809647</v>
       </c>
       <c r="Q28" t="n">
-        <v>937.8467615809666</v>
+        <v>937.8467615809647</v>
       </c>
       <c r="R28" t="n">
-        <v>916.66567750434</v>
+        <v>916.6656775043382</v>
       </c>
       <c r="S28" t="n">
-        <v>839.5179465236821</v>
+        <v>839.5179465236804</v>
       </c>
       <c r="T28" t="n">
-        <v>753.2268914814922</v>
+        <v>753.2268914814906</v>
       </c>
       <c r="U28" t="n">
-        <v>607.6364103071415</v>
+        <v>607.6364103071401</v>
       </c>
       <c r="V28" t="n">
-        <v>495.4834657088235</v>
+        <v>495.4834657088222</v>
       </c>
       <c r="W28" t="n">
-        <v>349.8393839181051</v>
+        <v>349.839383918104</v>
       </c>
       <c r="X28" t="n">
-        <v>264.7530970315345</v>
+        <v>264.7530970315335</v>
       </c>
       <c r="Y28" t="n">
-        <v>187.1331597051063</v>
+        <v>187.1331597051054</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1514.307663108088</v>
+        <v>1514.307663108089</v>
       </c>
       <c r="C29" t="n">
         <v>1286.953966376434</v>
       </c>
       <c r="D29" t="n">
-        <v>1080.962607271546</v>
+        <v>1070.085484719874</v>
       </c>
       <c r="E29" t="n">
-        <v>837.313011472876</v>
+        <v>826.4358889212047</v>
       </c>
       <c r="F29" t="n">
-        <v>569.2433876688997</v>
+        <v>569.2433876688995</v>
       </c>
       <c r="G29" t="n">
-        <v>294.0631933859357</v>
+        <v>294.0631933859356</v>
       </c>
       <c r="H29" t="n">
         <v>101.2361234158272</v>
       </c>
       <c r="I29" t="n">
-        <v>57.58292517023293</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J29" t="n">
         <v>241.2298903329204</v>
@@ -6467,7 +6467,7 @@
         <v>568.6796380967951</v>
       </c>
       <c r="L29" t="n">
-        <v>993.0798050799483</v>
+        <v>993.0798050799482</v>
       </c>
       <c r="M29" t="n">
         <v>1464.687326894502</v>
@@ -6485,25 +6485,25 @@
         <v>2846.665507376554</v>
       </c>
       <c r="R29" t="n">
-        <v>2879.146258511646</v>
+        <v>2879.146258511647</v>
       </c>
       <c r="S29" t="n">
-        <v>2826.542453689431</v>
+        <v>2826.542453689432</v>
       </c>
       <c r="T29" t="n">
-        <v>2746.96913029381</v>
+        <v>2746.969130293811</v>
       </c>
       <c r="U29" t="n">
-        <v>2636.331642728141</v>
+        <v>2636.331642728142</v>
       </c>
       <c r="V29" t="n">
-        <v>2447.818222922166</v>
+        <v>2447.818222922167</v>
       </c>
       <c r="W29" t="n">
-        <v>2237.085716774741</v>
+        <v>2237.085716774742</v>
       </c>
       <c r="X29" t="n">
-        <v>2005.816359990332</v>
+        <v>2005.816359990333</v>
       </c>
       <c r="Y29" t="n">
         <v>1758.561677327069</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>723.6825317728722</v>
+        <v>399.3648396155306</v>
       </c>
       <c r="C30" t="n">
-        <v>694.2677358003502</v>
+        <v>369.9500436430088</v>
       </c>
       <c r="D30" t="n">
-        <v>546.6794291592942</v>
+        <v>353.9252954836721</v>
       </c>
       <c r="E30" t="n">
-        <v>389.0699001621489</v>
+        <v>339.6540855921878</v>
       </c>
       <c r="F30" t="n">
-        <v>244.1141101787658</v>
+        <v>194.6982956088047</v>
       </c>
       <c r="G30" t="n">
-        <v>244.1141101787658</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="H30" t="n">
-        <v>135.2575183117596</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="I30" t="n">
-        <v>57.58292517023293</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J30" t="n">
-        <v>91.07141308759039</v>
+        <v>91.0714130875904</v>
       </c>
       <c r="K30" t="n">
-        <v>274.9141861385139</v>
+        <v>274.914186138514</v>
       </c>
       <c r="L30" t="n">
         <v>582.9630890760238</v>
@@ -6576,16 +6576,16 @@
         <v>1465.428460248929</v>
       </c>
       <c r="V30" t="n">
-        <v>1268.81827072055</v>
+        <v>1231.17721677453</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.642098159544</v>
+        <v>978.6627251078631</v>
       </c>
       <c r="X30" t="n">
-        <v>953.1151995651212</v>
+        <v>772.1358265134406</v>
       </c>
       <c r="Y30" t="n">
-        <v>747.3867637887716</v>
+        <v>566.4073907370911</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.5687601333088</v>
+        <v>148.5687601333084</v>
       </c>
       <c r="C31" t="n">
-        <v>122.8802580963411</v>
+        <v>122.8802580963408</v>
       </c>
       <c r="D31" t="n">
-        <v>115.7079039550128</v>
+        <v>115.7079039550125</v>
       </c>
       <c r="E31" t="n">
-        <v>110.5870067241089</v>
+        <v>110.5870067241087</v>
       </c>
       <c r="F31" t="n">
-        <v>106.2899506683512</v>
+        <v>106.289950668351</v>
       </c>
       <c r="G31" t="n">
-        <v>80.27908777791086</v>
+        <v>80.27908777791076</v>
       </c>
       <c r="H31" t="n">
-        <v>62.45124582204469</v>
+        <v>62.45124582204465</v>
       </c>
       <c r="I31" t="n">
-        <v>57.58292517023293</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="J31" t="n">
-        <v>126.4896307336612</v>
+        <v>57.58292517023295</v>
       </c>
       <c r="K31" t="n">
-        <v>279.2518863498457</v>
+        <v>69.85929423095916</v>
       </c>
       <c r="L31" t="n">
-        <v>350.7650272780758</v>
+        <v>141.3724351591892</v>
       </c>
       <c r="M31" t="n">
-        <v>436.7585071270228</v>
+        <v>367.8518015635946</v>
       </c>
       <c r="N31" t="n">
-        <v>666.3344026803388</v>
+        <v>597.4276971169106</v>
       </c>
       <c r="O31" t="n">
-        <v>763.2939721407178</v>
+        <v>804.8660300622685</v>
       </c>
       <c r="P31" t="n">
-        <v>937.8467615809666</v>
+        <v>856.9339950974168</v>
       </c>
       <c r="Q31" t="n">
-        <v>937.8467615809666</v>
+        <v>937.8467615809656</v>
       </c>
       <c r="R31" t="n">
-        <v>916.66567750434</v>
+        <v>916.6656775043391</v>
       </c>
       <c r="S31" t="n">
-        <v>839.5179465236821</v>
+        <v>839.5179465236812</v>
       </c>
       <c r="T31" t="n">
-        <v>753.2268914814922</v>
+        <v>753.2268914814913</v>
       </c>
       <c r="U31" t="n">
-        <v>607.6364103071415</v>
+        <v>607.6364103071407</v>
       </c>
       <c r="V31" t="n">
-        <v>495.4834657088235</v>
+        <v>495.4834657088228</v>
       </c>
       <c r="W31" t="n">
-        <v>349.8393839181051</v>
+        <v>349.8393839181045</v>
       </c>
       <c r="X31" t="n">
-        <v>264.7530970315345</v>
+        <v>264.7530970315339</v>
       </c>
       <c r="Y31" t="n">
-        <v>187.1331597051063</v>
+        <v>187.1331597051058</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.746096391266</v>
+        <v>1491.746096391265</v>
       </c>
       <c r="C32" t="n">
         <v>1268.999586521923</v>
@@ -6683,67 +6683,67 @@
         <v>1056.738291727676</v>
       </c>
       <c r="E32" t="n">
-        <v>817.6958827913193</v>
+        <v>817.6958827913186</v>
       </c>
       <c r="F32" t="n">
-        <v>554.2334458496557</v>
+        <v>554.2334458496549</v>
       </c>
       <c r="G32" t="n">
-        <v>283.6604384290041</v>
+        <v>283.660438429004</v>
       </c>
       <c r="H32" t="n">
-        <v>95.44055532120817</v>
+        <v>95.44055532120815</v>
       </c>
       <c r="I32" t="n">
-        <v>56.39454393792649</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="J32" t="n">
         <v>244.5570129443664</v>
       </c>
       <c r="K32" t="n">
-        <v>576.5222645519938</v>
+        <v>576.5222645519937</v>
       </c>
       <c r="L32" t="n">
         <v>1005.437935378899</v>
       </c>
       <c r="M32" t="n">
-        <v>1382.690746060417</v>
+        <v>1481.560961037205</v>
       </c>
       <c r="N32" t="n">
-        <v>1848.654490961957</v>
+        <v>1848.654490961956</v>
       </c>
       <c r="O32" t="n">
-        <v>2250.603179934094</v>
+        <v>2250.603179934093</v>
       </c>
       <c r="P32" t="n">
-        <v>2577.964351811441</v>
+        <v>2577.96435181144</v>
       </c>
       <c r="Q32" t="n">
-        <v>2782.730941917479</v>
+        <v>2782.730941917478</v>
       </c>
       <c r="R32" t="n">
-        <v>2819.727196896325</v>
+        <v>2819.727196896324</v>
       </c>
       <c r="S32" t="n">
-        <v>2771.730578936421</v>
+        <v>2771.73057893642</v>
       </c>
       <c r="T32" t="n">
-        <v>2696.764442403113</v>
+        <v>2696.764442403112</v>
       </c>
       <c r="U32" t="n">
-        <v>2590.734141699756</v>
+        <v>2590.734141699755</v>
       </c>
       <c r="V32" t="n">
-        <v>2406.827908756094</v>
+        <v>2406.827908756093</v>
       </c>
       <c r="W32" t="n">
-        <v>2200.702589470982</v>
+        <v>2200.702589470981</v>
       </c>
       <c r="X32" t="n">
         <v>1974.040419548885</v>
       </c>
       <c r="Y32" t="n">
-        <v>1731.392923747934</v>
+        <v>1731.392923747933</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1463.068233929764</v>
+        <v>679.3012846376939</v>
       </c>
       <c r="C33" t="n">
-        <v>1438.260624819555</v>
+        <v>506.5481695595111</v>
       </c>
       <c r="D33" t="n">
-        <v>1290.672318178499</v>
+        <v>358.9598629184549</v>
       </c>
       <c r="E33" t="n">
-        <v>1133.062789181354</v>
+        <v>201.3503339213096</v>
       </c>
       <c r="F33" t="n">
-        <v>988.1069991979704</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="G33" t="n">
-        <v>850.9916287593986</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="H33" t="n">
-        <v>742.1350368923923</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="I33" t="n">
-        <v>742.1350368923923</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="J33" t="n">
-        <v>775.6235248097498</v>
+        <v>89.88303185528392</v>
       </c>
       <c r="K33" t="n">
-        <v>959.4662978606734</v>
+        <v>273.7258049062075</v>
       </c>
       <c r="L33" t="n">
-        <v>1267.515200798183</v>
+        <v>581.7747078437174</v>
       </c>
       <c r="M33" t="n">
-        <v>1679.793934872903</v>
+        <v>994.0534419184373</v>
       </c>
       <c r="N33" t="n">
-        <v>2118.383192268352</v>
+        <v>1432.642699313886</v>
       </c>
       <c r="O33" t="n">
-        <v>2451.978658725531</v>
+        <v>1766.238165771065</v>
       </c>
       <c r="P33" t="n">
-        <v>2703.291889774569</v>
+        <v>2017.551396820103</v>
       </c>
       <c r="Q33" t="n">
-        <v>2819.727196896325</v>
+        <v>2133.986703941859</v>
       </c>
       <c r="R33" t="n">
-        <v>2741.572740879637</v>
+        <v>2055.832247925171</v>
       </c>
       <c r="S33" t="n">
-        <v>2576.138970627066</v>
+        <v>2038.343983640574</v>
       </c>
       <c r="T33" t="n">
-        <v>2376.888473217141</v>
+        <v>1839.093486230649</v>
       </c>
       <c r="U33" t="n">
-        <v>2149.980571971088</v>
+        <v>1745.364905271092</v>
       </c>
       <c r="V33" t="n">
-        <v>2063.674834464663</v>
+        <v>1511.113661796693</v>
       </c>
       <c r="W33" t="n">
-        <v>1894.420613454123</v>
+        <v>1258.599170130026</v>
       </c>
       <c r="X33" t="n">
-        <v>1687.893714859701</v>
+        <v>1052.072271535604</v>
       </c>
       <c r="Y33" t="n">
-        <v>1482.165279083351</v>
+        <v>846.3438357592544</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.440201671369</v>
+        <v>115.1362424678646</v>
       </c>
       <c r="C34" t="n">
-        <v>94.35888649671394</v>
+        <v>94.05492729320952</v>
       </c>
       <c r="D34" t="n">
-        <v>91.79371921769821</v>
+        <v>91.48976001419379</v>
       </c>
       <c r="E34" t="n">
-        <v>91.28000884910692</v>
+        <v>90.9760496456025</v>
       </c>
       <c r="F34" t="n">
-        <v>91.28000884910692</v>
+        <v>91.28000884910691</v>
       </c>
       <c r="G34" t="n">
-        <v>69.87633282097921</v>
+        <v>69.8763328209792</v>
       </c>
       <c r="H34" t="n">
-        <v>56.65567772742565</v>
+        <v>56.65567772742563</v>
       </c>
       <c r="I34" t="n">
-        <v>56.39454393792649</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="J34" t="n">
-        <v>56.39454393792649</v>
+        <v>56.39454393792647</v>
       </c>
       <c r="K34" t="n">
-        <v>213.6723033978636</v>
+        <v>213.6723033978635</v>
       </c>
       <c r="L34" t="n">
-        <v>430.1868347253045</v>
+        <v>285.1854443260936</v>
       </c>
       <c r="M34" t="n">
-        <v>661.1817049734624</v>
+        <v>371.1789241750406</v>
       </c>
       <c r="N34" t="n">
-        <v>750.2717139713202</v>
+        <v>605.2703235721092</v>
       </c>
       <c r="O34" t="n">
-        <v>817.2241603612197</v>
+        <v>817.2241603612194</v>
       </c>
       <c r="P34" t="n">
-        <v>863.2535213582133</v>
+        <v>851.29106324601</v>
       </c>
       <c r="Q34" t="n">
-        <v>863.2535213582133</v>
+        <v>862.9495621547088</v>
       </c>
       <c r="R34" t="n">
-        <v>846.6796241438994</v>
+        <v>846.3756649403949</v>
       </c>
       <c r="S34" t="n">
-        <v>774.1390800255541</v>
+        <v>773.8351208220496</v>
       </c>
       <c r="T34" t="n">
-        <v>692.4552118456768</v>
+        <v>692.1512526421723</v>
       </c>
       <c r="U34" t="n">
-        <v>551.4719175336387</v>
+        <v>551.1679583301343</v>
       </c>
       <c r="V34" t="n">
-        <v>443.9261597976333</v>
+        <v>443.6222005941289</v>
       </c>
       <c r="W34" t="n">
-        <v>302.8892648692275</v>
+        <v>302.5853056657231</v>
       </c>
       <c r="X34" t="n">
-        <v>222.4101648449695</v>
+        <v>222.1062056414651</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.3974143808539</v>
+        <v>149.0934551773495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.210200456279</v>
+        <v>1150.210200456278</v>
       </c>
       <c r="C35" t="n">
-        <v>975.4603085468399</v>
+        <v>975.46030854684</v>
       </c>
       <c r="D35" t="n">
-        <v>811.1956317124963</v>
+        <v>811.1956317124964</v>
       </c>
       <c r="E35" t="n">
-        <v>620.1498407360424</v>
+        <v>620.1498407360425</v>
       </c>
       <c r="F35" t="n">
-        <v>404.6840217542821</v>
+        <v>404.6840217542822</v>
       </c>
       <c r="G35" t="n">
         <v>182.1076322935347</v>
@@ -6932,28 +6932,28 @@
         <v>41.88436714564219</v>
       </c>
       <c r="I35" t="n">
-        <v>41.88436714564219</v>
+        <v>44.93711619603089</v>
       </c>
       <c r="J35" t="n">
-        <v>277.0883214145835</v>
+        <v>88.09819480325999</v>
       </c>
       <c r="K35" t="n">
-        <v>464.0521826229999</v>
+        <v>275.0620560116764</v>
       </c>
       <c r="L35" t="n">
-        <v>747.9664630506946</v>
+        <v>558.9763364393712</v>
       </c>
       <c r="M35" t="n">
-        <v>1079.08809830979</v>
+        <v>890.0979716984664</v>
       </c>
       <c r="N35" t="n">
-        <v>1400.050452812119</v>
+        <v>1211.060326200796</v>
       </c>
       <c r="O35" t="n">
-        <v>1660.050500435434</v>
+        <v>1468.007624773721</v>
       </c>
       <c r="P35" t="n">
-        <v>2034.453157575282</v>
+        <v>1842.41028191357</v>
       </c>
       <c r="Q35" t="n">
         <v>2094.21835728211</v>
@@ -6968,10 +6968,10 @@
         <v>2067.248838708705</v>
       </c>
       <c r="U35" t="n">
-        <v>2009.215155965252</v>
+        <v>2009.215155965251</v>
       </c>
       <c r="V35" t="n">
-        <v>1873.305540981493</v>
+        <v>1873.305540981492</v>
       </c>
       <c r="W35" t="n">
         <v>1715.176839656284</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>851.3222928539424</v>
+        <v>554.3502356513516</v>
       </c>
       <c r="C36" t="n">
-        <v>678.5691777757595</v>
+        <v>381.5971205731688</v>
       </c>
       <c r="D36" t="n">
-        <v>530.9808711347034</v>
+        <v>323.9555275675971</v>
       </c>
       <c r="E36" t="n">
-        <v>373.3713421375581</v>
+        <v>323.9555275675971</v>
       </c>
       <c r="F36" t="n">
-        <v>228.415552154175</v>
+        <v>178.9997375842139</v>
       </c>
       <c r="G36" t="n">
-        <v>228.415552154175</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="H36" t="n">
-        <v>119.5589602871688</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I36" t="n">
         <v>41.88436714564219</v>
       </c>
       <c r="J36" t="n">
-        <v>50.11468519553455</v>
+        <v>75.37285506299965</v>
       </c>
       <c r="K36" t="n">
-        <v>233.9574582464581</v>
+        <v>259.2156281139232</v>
       </c>
       <c r="L36" t="n">
         <v>542.006361183968</v>
@@ -7041,25 +7041,25 @@
         <v>2016.063901265422</v>
       </c>
       <c r="S36" t="n">
-        <v>2016.063901265422</v>
+        <v>1850.630131012851</v>
       </c>
       <c r="T36" t="n">
-        <v>1948.351690805517</v>
+        <v>1651.379633602926</v>
       </c>
       <c r="U36" t="n">
-        <v>1721.443789559464</v>
+        <v>1424.471732356873</v>
       </c>
       <c r="V36" t="n">
-        <v>1487.192546085065</v>
+        <v>1190.220488882474</v>
       </c>
       <c r="W36" t="n">
-        <v>1234.678054418398</v>
+        <v>937.7059972158071</v>
       </c>
       <c r="X36" t="n">
-        <v>1028.151155823975</v>
+        <v>927.1212225492616</v>
       </c>
       <c r="Y36" t="n">
-        <v>1018.364843975503</v>
+        <v>721.392786772912</v>
       </c>
     </row>
     <row r="37">
@@ -7105,10 +7105,10 @@
         <v>211.6673569835455</v>
       </c>
       <c r="N37" t="n">
-        <v>302.1709019146737</v>
+        <v>300.7573659814033</v>
       </c>
       <c r="O37" t="n">
-        <v>369.1233483045732</v>
+        <v>367.7098123713027</v>
       </c>
       <c r="P37" t="n">
         <v>403.1902511893638</v>
@@ -7151,16 +7151,16 @@
         <v>1150.210200456279</v>
       </c>
       <c r="C38" t="n">
-        <v>975.46030854684</v>
+        <v>975.4603085468401</v>
       </c>
       <c r="D38" t="n">
-        <v>811.1956317124964</v>
+        <v>811.1956317124966</v>
       </c>
       <c r="E38" t="n">
-        <v>620.1498407360425</v>
+        <v>620.1498407360427</v>
       </c>
       <c r="F38" t="n">
-        <v>404.6840217542822</v>
+        <v>404.6840217542824</v>
       </c>
       <c r="G38" t="n">
         <v>182.1076322935347</v>
@@ -7169,25 +7169,25 @@
         <v>41.88436714564219</v>
       </c>
       <c r="I38" t="n">
-        <v>50.65685665138917</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="J38" t="n">
-        <v>93.81793525861826</v>
+        <v>85.04544575287129</v>
       </c>
       <c r="K38" t="n">
-        <v>280.7817964670347</v>
+        <v>464.0521826229999</v>
       </c>
       <c r="L38" t="n">
-        <v>751.0192121010834</v>
+        <v>747.9664630506946</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.140847360179</v>
+        <v>1079.08809830979</v>
       </c>
       <c r="N38" t="n">
-        <v>1595.14607752422</v>
+        <v>1403.103201862508</v>
       </c>
       <c r="O38" t="n">
-        <v>1852.093376097146</v>
+        <v>1660.050500435434</v>
       </c>
       <c r="P38" t="n">
         <v>2034.453157575282</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>851.3222928539424</v>
+        <v>664.7911078454096</v>
       </c>
       <c r="C39" t="n">
-        <v>678.5691777757595</v>
+        <v>492.0379927672267</v>
       </c>
       <c r="D39" t="n">
-        <v>530.9808711347034</v>
+        <v>344.4496861261706</v>
       </c>
       <c r="E39" t="n">
-        <v>373.3713421375581</v>
+        <v>186.8401571290253</v>
       </c>
       <c r="F39" t="n">
-        <v>228.415552154175</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="G39" t="n">
-        <v>228.415552154175</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="H39" t="n">
-        <v>119.5589602871688</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I39" t="n">
         <v>41.88436714564219</v>
       </c>
       <c r="J39" t="n">
-        <v>50.11468519553455</v>
+        <v>75.37285506299965</v>
       </c>
       <c r="K39" t="n">
         <v>233.9574582464581</v>
@@ -7278,25 +7278,25 @@
         <v>2016.063901265422</v>
       </c>
       <c r="S39" t="n">
-        <v>2016.063901265422</v>
+        <v>1850.630131012851</v>
       </c>
       <c r="T39" t="n">
-        <v>1816.813403855497</v>
+        <v>1651.379633602926</v>
       </c>
       <c r="U39" t="n">
-        <v>1785.847626537321</v>
+        <v>1424.471732356873</v>
       </c>
       <c r="V39" t="n">
-        <v>1551.596383062922</v>
+        <v>1300.661361076532</v>
       </c>
       <c r="W39" t="n">
-        <v>1299.081891396255</v>
+        <v>1048.146869409865</v>
       </c>
       <c r="X39" t="n">
-        <v>1224.093279751852</v>
+        <v>1037.562094743319</v>
       </c>
       <c r="Y39" t="n">
-        <v>1018.364843975503</v>
+        <v>831.83365896697</v>
       </c>
     </row>
     <row r="40">
@@ -7321,19 +7321,19 @@
         <v>41.88436714564219</v>
       </c>
       <c r="G40" t="n">
-        <v>41.88436714564219</v>
+        <v>43.29790307891268</v>
       </c>
       <c r="H40" t="n">
-        <v>41.88436714564219</v>
+        <v>43.29790307891268</v>
       </c>
       <c r="I40" t="n">
-        <v>41.88436714564219</v>
+        <v>43.29790307891268</v>
       </c>
       <c r="J40" t="n">
-        <v>41.88436714564219</v>
+        <v>43.29790307891268</v>
       </c>
       <c r="K40" t="n">
-        <v>54.16073620636841</v>
+        <v>55.57427213963889</v>
       </c>
       <c r="L40" t="n">
         <v>127.0874130678689</v>
@@ -7388,49 +7388,49 @@
         <v>1150.210200456279</v>
       </c>
       <c r="C41" t="n">
-        <v>975.4603085468401</v>
+        <v>975.46030854684</v>
       </c>
       <c r="D41" t="n">
-        <v>811.1956317124964</v>
+        <v>811.1956317124966</v>
       </c>
       <c r="E41" t="n">
-        <v>620.1498407360425</v>
+        <v>620.1498407360428</v>
       </c>
       <c r="F41" t="n">
-        <v>404.6840217542823</v>
+        <v>404.6840217542826</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1076322935347</v>
+        <v>182.1076322935346</v>
       </c>
       <c r="H41" t="n">
         <v>41.88436714564219</v>
       </c>
       <c r="I41" t="n">
-        <v>50.65685665138917</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="J41" t="n">
-        <v>196.1033302236251</v>
+        <v>85.04544575287129</v>
       </c>
       <c r="K41" t="n">
-        <v>383.0671914320416</v>
+        <v>272.0093069612877</v>
       </c>
       <c r="L41" t="n">
-        <v>666.9814718597363</v>
+        <v>555.9235873889825</v>
       </c>
       <c r="M41" t="n">
-        <v>998.1031071188315</v>
+        <v>1074.242630816304</v>
       </c>
       <c r="N41" t="n">
-        <v>1319.065461621161</v>
+        <v>1587.247860980346</v>
       </c>
       <c r="O41" t="n">
-        <v>1576.012760194086</v>
+        <v>1844.195159553272</v>
       </c>
       <c r="P41" t="n">
-        <v>1950.415417333935</v>
+        <v>2026.554941031408</v>
       </c>
       <c r="Q41" t="n">
-        <v>2010.180617040762</v>
+        <v>2094.21835728211</v>
       </c>
       <c r="R41" t="n">
         <v>2094.21835728211</v>
@@ -7451,7 +7451,7 @@
         <v>1715.176839656285</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.511287694092</v>
+        <v>1536.511287694091</v>
       </c>
       <c r="Y41" t="n">
         <v>1341.860409853043</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>750.2923595792284</v>
+        <v>519.8353178620264</v>
       </c>
       <c r="C42" t="n">
-        <v>678.5691777757595</v>
+        <v>347.0822027838436</v>
       </c>
       <c r="D42" t="n">
-        <v>530.9808711347034</v>
+        <v>199.4938961427875</v>
       </c>
       <c r="E42" t="n">
-        <v>373.3713421375581</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="F42" t="n">
-        <v>228.415552154175</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="G42" t="n">
-        <v>228.415552154175</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5589602871688</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I42" t="n">
         <v>41.88436714564219</v>
@@ -7491,16 +7491,16 @@
         <v>75.37285506299965</v>
       </c>
       <c r="K42" t="n">
-        <v>233.9574582464581</v>
+        <v>259.2156281139232</v>
       </c>
       <c r="L42" t="n">
-        <v>542.006361183968</v>
+        <v>567.2645310514331</v>
       </c>
       <c r="M42" t="n">
-        <v>954.2850952586881</v>
+        <v>979.5432651261531</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.874352654137</v>
+        <v>1418.132522521602</v>
       </c>
       <c r="O42" t="n">
         <v>1726.469819111316</v>
@@ -7527,13 +7527,13 @@
         <v>1190.220488882474</v>
       </c>
       <c r="W42" t="n">
-        <v>1133.648121143684</v>
+        <v>937.7059972158071</v>
       </c>
       <c r="X42" t="n">
-        <v>927.1212225492615</v>
+        <v>731.1790986213846</v>
       </c>
       <c r="Y42" t="n">
-        <v>917.3349107007889</v>
+        <v>525.450662845035</v>
       </c>
     </row>
     <row r="43">
@@ -7546,70 +7546,70 @@
         <v>41.88436714564219</v>
       </c>
       <c r="C43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="D43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="E43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="F43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="G43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="H43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="J43" t="n">
-        <v>43.29790307891268</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="K43" t="n">
-        <v>55.57427213963889</v>
+        <v>54.16073620636841</v>
       </c>
       <c r="L43" t="n">
-        <v>127.0874130678689</v>
+        <v>125.6738771345985</v>
       </c>
       <c r="M43" t="n">
-        <v>213.080892916816</v>
+        <v>211.6673569835455</v>
       </c>
       <c r="N43" t="n">
-        <v>302.1709019146737</v>
+        <v>302.1709019146733</v>
       </c>
       <c r="O43" t="n">
-        <v>369.1233483045732</v>
+        <v>369.1233483045728</v>
       </c>
       <c r="P43" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="R43" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="S43" t="n">
-        <v>378.6463250309218</v>
+        <v>378.6463250309215</v>
       </c>
       <c r="T43" t="n">
-        <v>344.9590748109479</v>
+        <v>344.9590748109476</v>
       </c>
       <c r="U43" t="n">
-        <v>251.9723984588134</v>
+        <v>251.9723984588131</v>
       </c>
       <c r="V43" t="n">
-        <v>192.4232586827113</v>
+        <v>192.4232586827112</v>
       </c>
       <c r="W43" t="n">
-        <v>99.38298171420897</v>
+        <v>99.38298171420885</v>
       </c>
       <c r="X43" t="n">
-        <v>66.90049964985435</v>
+        <v>66.9004996498543</v>
       </c>
       <c r="Y43" t="n">
         <v>41.88436714564219</v>
@@ -7622,58 +7622,58 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.210200456279</v>
+        <v>1150.21020045628</v>
       </c>
       <c r="C44" t="n">
-        <v>975.4603085468406</v>
+        <v>975.4603085468408</v>
       </c>
       <c r="D44" t="n">
-        <v>811.1956317124968</v>
+        <v>811.1956317124973</v>
       </c>
       <c r="E44" t="n">
-        <v>620.149840736043</v>
+        <v>620.1498407360434</v>
       </c>
       <c r="F44" t="n">
-        <v>404.6840217542827</v>
+        <v>404.6840217542831</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1076322935347</v>
+        <v>182.1076322935346</v>
       </c>
       <c r="H44" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I44" t="n">
-        <v>50.65685665138921</v>
+        <v>44.93711619603101</v>
       </c>
       <c r="J44" t="n">
-        <v>93.81793525861829</v>
+        <v>88.0981948032601</v>
       </c>
       <c r="K44" t="n">
-        <v>280.7817964670347</v>
+        <v>275.0620560116765</v>
       </c>
       <c r="L44" t="n">
-        <v>564.6960768947295</v>
+        <v>558.9763364393713</v>
       </c>
       <c r="M44" t="n">
-        <v>895.8177121538247</v>
+        <v>890.0979716984665</v>
       </c>
       <c r="N44" t="n">
-        <v>1403.10320186251</v>
+        <v>1403.103201862508</v>
       </c>
       <c r="O44" t="n">
-        <v>1852.093376097148</v>
+        <v>1660.050500435434</v>
       </c>
       <c r="P44" t="n">
-        <v>2034.453157575284</v>
+        <v>2034.453157575282</v>
       </c>
       <c r="Q44" t="n">
-        <v>2094.218357282111</v>
+        <v>2094.21835728211</v>
       </c>
       <c r="R44" t="n">
-        <v>2094.218357282111</v>
+        <v>2094.21835728211</v>
       </c>
       <c r="S44" t="n">
-        <v>2094.218357282111</v>
+        <v>2094.21835728211</v>
       </c>
       <c r="T44" t="n">
         <v>2067.248838708705</v>
@@ -7682,7 +7682,7 @@
         <v>2009.215155965252</v>
       </c>
       <c r="V44" t="n">
-        <v>1873.305540981493</v>
+        <v>1873.305540981494</v>
       </c>
       <c r="W44" t="n">
         <v>1715.176839656285</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>840.849356651458</v>
+        <v>554.3502356513515</v>
       </c>
       <c r="C45" t="n">
-        <v>668.0962415732753</v>
+        <v>554.3502356513515</v>
       </c>
       <c r="D45" t="n">
-        <v>668.0962415732753</v>
+        <v>406.7619290102953</v>
       </c>
       <c r="E45" t="n">
-        <v>510.48671257613</v>
+        <v>249.15240001315</v>
       </c>
       <c r="F45" t="n">
-        <v>365.5309225927468</v>
+        <v>249.15240001315</v>
       </c>
       <c r="G45" t="n">
-        <v>228.4155521541751</v>
+        <v>112.0370295745783</v>
       </c>
       <c r="H45" t="n">
-        <v>119.5589602871688</v>
+        <v>112.0370295745783</v>
       </c>
       <c r="I45" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="J45" t="n">
-        <v>75.37285506299969</v>
+        <v>75.37285506299965</v>
       </c>
       <c r="K45" t="n">
         <v>259.2156281139232</v>
@@ -7734,43 +7734,43 @@
         <v>567.2645310514331</v>
       </c>
       <c r="M45" t="n">
-        <v>979.5432651261531</v>
+        <v>954.2850952586881</v>
       </c>
       <c r="N45" t="n">
-        <v>1418.132522521602</v>
+        <v>1392.874352654137</v>
       </c>
       <c r="O45" t="n">
-        <v>1751.727988978781</v>
+        <v>1726.469819111316</v>
       </c>
       <c r="P45" t="n">
-        <v>2003.041220027818</v>
+        <v>1977.783050160353</v>
       </c>
       <c r="Q45" t="n">
-        <v>2094.218357282111</v>
+        <v>2094.21835728211</v>
       </c>
       <c r="R45" t="n">
-        <v>2016.063901265424</v>
+        <v>2016.063901265422</v>
       </c>
       <c r="S45" t="n">
-        <v>2016.063901265424</v>
+        <v>1850.630131012851</v>
       </c>
       <c r="T45" t="n">
-        <v>1816.813403855499</v>
+        <v>1651.379633602926</v>
       </c>
       <c r="U45" t="n">
-        <v>1589.905502609446</v>
+        <v>1620.41385628475</v>
       </c>
       <c r="V45" t="n">
-        <v>1355.654259135047</v>
+        <v>1386.162612810351</v>
       </c>
       <c r="W45" t="n">
-        <v>1224.205118215913</v>
+        <v>1133.648121143684</v>
       </c>
       <c r="X45" t="n">
-        <v>1017.678219621491</v>
+        <v>927.1212225492615</v>
       </c>
       <c r="Y45" t="n">
-        <v>1007.891907773018</v>
+        <v>721.3927867729119</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="C46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="D46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="E46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="F46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="G46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="H46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="I46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="J46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
       <c r="K46" t="n">
-        <v>54.16073620636844</v>
+        <v>54.16073620636841</v>
       </c>
       <c r="L46" t="n">
         <v>125.6738771345985</v>
       </c>
       <c r="M46" t="n">
-        <v>213.080892916816</v>
+        <v>211.6673569835455</v>
       </c>
       <c r="N46" t="n">
-        <v>302.1709019146737</v>
+        <v>300.7573659814033</v>
       </c>
       <c r="O46" t="n">
-        <v>369.1233483045732</v>
+        <v>369.1233483045728</v>
       </c>
       <c r="P46" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="R46" t="n">
-        <v>403.1902511893638</v>
+        <v>403.1902511893634</v>
       </c>
       <c r="S46" t="n">
-        <v>378.6463250309218</v>
+        <v>378.6463250309215</v>
       </c>
       <c r="T46" t="n">
-        <v>344.959074810948</v>
+        <v>344.9590748109476</v>
       </c>
       <c r="U46" t="n">
-        <v>251.9723984588134</v>
+        <v>251.9723984588131</v>
       </c>
       <c r="V46" t="n">
-        <v>192.4232586827114</v>
+        <v>192.4232586827112</v>
       </c>
       <c r="W46" t="n">
-        <v>99.38298171420902</v>
+        <v>99.38298171420885</v>
       </c>
       <c r="X46" t="n">
-        <v>66.9004996498544</v>
+        <v>66.9004996498543</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.88436714564223</v>
+        <v>41.88436714564219</v>
       </c>
     </row>
   </sheetData>
@@ -8234,7 +8234,7 @@
         <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
-        <v>216.7480476275901</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8301,13 +8301,13 @@
         <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739683</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.0581692812504</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333338</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
@@ -8380,10 +8380,10 @@
         <v>131.5125593742073</v>
       </c>
       <c r="M7" t="n">
-        <v>135.4526393489154</v>
+        <v>135.4526393489149</v>
       </c>
       <c r="N7" t="n">
-        <v>124.4934058536042</v>
+        <v>124.4934058536024</v>
       </c>
       <c r="O7" t="n">
         <v>134.9951249905467</v>
@@ -8453,7 +8453,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K8" t="n">
-        <v>214.587604768856</v>
+        <v>224.7826349724054</v>
       </c>
       <c r="L8" t="n">
         <v>244.7270199995685</v>
@@ -8462,13 +8462,13 @@
         <v>239.4423428004218</v>
       </c>
       <c r="N8" t="n">
-        <v>223.6777370066762</v>
+        <v>238.5325024105071</v>
       </c>
       <c r="O8" t="n">
-        <v>234.5407863396939</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P8" t="n">
-        <v>240.3069362652187</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8529,16 +8529,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>149.9452856892083</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>145.3672651822047</v>
+        <v>153.4354484777988</v>
       </c>
       <c r="N9" t="n">
         <v>128.05816928125</v>
@@ -8550,7 +8550,7 @@
         <v>145.4798126328029</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>150.736802596133</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8614,10 +8614,10 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>146.3673247780382</v>
+        <v>139.6451103377855</v>
       </c>
       <c r="M10" t="n">
-        <v>143.5851903124931</v>
+        <v>150.3074047527458</v>
       </c>
       <c r="N10" t="n">
         <v>139.3481712574333</v>
@@ -8766,10 +8766,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>97.30792128194695</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>89.34407573457314</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.2913851992961</v>
+        <v>480.2913851992962</v>
       </c>
       <c r="O12" t="n">
-        <v>348.4171505584836</v>
+        <v>265.1309515271712</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>77.34953085115318</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.8689579101759</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>81.95377614428604</v>
+        <v>81.9537761442873</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9243,19 +9243,19 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.34407573457314</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>290.6475421542042</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.2913851992961</v>
+        <v>480.2913851992962</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>128.890624327897</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.30792128194695</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9486,13 +9486,13 @@
         <v>74.51345109791075</v>
       </c>
       <c r="M21" t="n">
-        <v>430.9829207347559</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>480.2913851992961</v>
+        <v>480.2913851992962</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>322.4397110104766</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9714,19 +9714,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.30792128194695</v>
       </c>
       <c r="K24" t="n">
-        <v>89.34407573457314</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>389.3068493386066</v>
+        <v>119.8224127170683</v>
       </c>
       <c r="N24" t="n">
-        <v>480.2913851992961</v>
+        <v>480.2913851992959</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9735,7 +9735,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.8689579101759</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,13 +10662,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6213738575958</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>385.6739591155975</v>
+        <v>360.1606562191681</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10899,10 +10899,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6213738575958</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>249.5305435966524</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -11139,7 +11139,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>249.5305435966524</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11151,7 +11151,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O42" t="n">
-        <v>409.6168120477987</v>
+        <v>384.1035091513696</v>
       </c>
       <c r="P42" t="n">
         <v>331.2012793855346</v>
@@ -11382,7 +11382,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>484.3332662999999</v>
+        <v>458.8199634035706</v>
       </c>
       <c r="N45" t="n">
         <v>498.5160693172957</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.9670763488557</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22793,10 +22793,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7.293863480540381</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383047</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>244.6952595113539</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>127.1716663896219</v>
+        <v>260.8281995876987</v>
       </c>
       <c r="F11" t="n">
         <v>285.0040273129521</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.39268990868005</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>129.1462124370283</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>74.18039307533793</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.3972355836471</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.80613703229983</v>
+        <v>148.0419286518218</v>
       </c>
       <c r="C14" t="n">
         <v>244.6952595113539</v>
       </c>
       <c r="D14" t="n">
-        <v>234.3148965870097</v>
+        <v>234.3148965870096</v>
       </c>
       <c r="E14" t="n">
-        <v>260.8281995876987</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.0040273129521</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>210.513899017423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.83176601015391</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.2433853549306</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.3972355836471</v>
+        <v>264.397235583647</v>
       </c>
     </row>
     <row r="15">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.76835132615349</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>10.76835132615281</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24683,13 +24683,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>10.76835132615537</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>10.76835132615429</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-4.920124201416125e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>829903.1682311369</v>
+        <v>829903.1682311367</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>875191.9470695991</v>
+        <v>875191.9470695992</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>649725.1022045925</v>
       </c>
       <c r="C2" t="n">
-        <v>649725.1022045923</v>
+        <v>649725.1022045925</v>
       </c>
       <c r="D2" t="n">
-        <v>651135.5268919497</v>
+        <v>651135.5268919494</v>
       </c>
       <c r="E2" t="n">
-        <v>558812.3257648455</v>
+        <v>558812.3257648457</v>
       </c>
       <c r="F2" t="n">
         <v>558812.3257648457</v>
       </c>
       <c r="G2" t="n">
-        <v>651135.526891949</v>
+        <v>651135.5268919485</v>
       </c>
       <c r="H2" t="n">
-        <v>651135.526891949</v>
+        <v>651135.5268919489</v>
       </c>
       <c r="I2" t="n">
         <v>651135.5268919488</v>
       </c>
       <c r="J2" t="n">
-        <v>650449.7982794988</v>
+        <v>650449.7982794987</v>
       </c>
       <c r="K2" t="n">
-        <v>650449.7982794985</v>
+        <v>650449.7982794987</v>
       </c>
       <c r="L2" t="n">
-        <v>651135.5268919485</v>
+        <v>651135.5268919484</v>
       </c>
       <c r="M2" t="n">
         <v>651135.5268919484</v>
       </c>
       <c r="N2" t="n">
-        <v>651135.5268919484</v>
+        <v>651135.5268919483</v>
       </c>
       <c r="O2" t="n">
         <v>651135.5268919481</v>
       </c>
       <c r="P2" t="n">
-        <v>651135.5268919484</v>
+        <v>651135.5268919483</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4614.335777391859</v>
+        <v>4614.335777392</v>
       </c>
       <c r="E3" t="n">
         <v>324438.3222291853</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>81125.44601563468</v>
+        <v>81125.4460156346</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109581.3364061818</v>
+        <v>109581.336406182</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84774.33801058626</v>
+        <v>84774.33801058613</v>
       </c>
       <c r="M3" t="n">
-        <v>94972.08356372477</v>
+        <v>94972.08356372485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32398.50271604881</v>
+        <v>32398.50271604895</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>399367.5523643354</v>
       </c>
       <c r="E4" t="n">
+        <v>251147.7022212263</v>
+      </c>
+      <c r="F4" t="n">
         <v>251147.7022212264</v>
-      </c>
-      <c r="F4" t="n">
-        <v>251147.7022212263</v>
       </c>
       <c r="G4" t="n">
         <v>316755.4812822231</v>
@@ -26436,25 +26436,25 @@
         <v>316755.4812822231</v>
       </c>
       <c r="I4" t="n">
-        <v>316755.4812822231</v>
+        <v>316755.481282223</v>
       </c>
       <c r="J4" t="n">
-        <v>312627.1646862213</v>
+        <v>312627.1646862214</v>
       </c>
       <c r="K4" t="n">
-        <v>312627.1646862213</v>
+        <v>312627.1646862214</v>
       </c>
       <c r="L4" t="n">
         <v>313033.320232504</v>
       </c>
       <c r="M4" t="n">
-        <v>312465.404453084</v>
+        <v>312465.4044530839</v>
       </c>
       <c r="N4" t="n">
         <v>312465.4044530839</v>
       </c>
       <c r="O4" t="n">
-        <v>312465.4044530839</v>
+        <v>312465.404453084</v>
       </c>
       <c r="P4" t="n">
         <v>312465.404453084</v>
@@ -26470,34 +26470,34 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.60000000003</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>34530.76973655292</v>
       </c>
       <c r="E5" t="n">
-        <v>38935.92941904635</v>
+        <v>38935.92941904636</v>
       </c>
       <c r="F5" t="n">
         <v>38935.92941904636</v>
       </c>
       <c r="G5" t="n">
-        <v>47461.09832040683</v>
+        <v>47461.09832040684</v>
       </c>
       <c r="H5" t="n">
-        <v>47461.09832040683</v>
+        <v>47461.09832040684</v>
       </c>
       <c r="I5" t="n">
-        <v>47461.09832040683</v>
+        <v>47461.09832040682</v>
       </c>
       <c r="J5" t="n">
+        <v>58520.45248702227</v>
+      </c>
+      <c r="K5" t="n">
         <v>58520.45248702225</v>
       </c>
-      <c r="K5" t="n">
-        <v>58520.45248702223</v>
-      </c>
       <c r="L5" t="n">
-        <v>58000.73112687382</v>
+        <v>58000.7311268738</v>
       </c>
       <c r="M5" t="n">
         <v>50967.67416325616</v>
@@ -26509,7 +26509,7 @@
         <v>50967.67416325616</v>
       </c>
       <c r="P5" t="n">
-        <v>50967.67416325619</v>
+        <v>50967.67416325616</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215306.7348680733</v>
+        <v>215302.3272909253</v>
       </c>
       <c r="C6" t="n">
-        <v>215306.734868073</v>
+        <v>215302.3272909253</v>
       </c>
       <c r="D6" t="n">
-        <v>212622.8690136695</v>
+        <v>212622.869013669</v>
       </c>
       <c r="E6" t="n">
-        <v>-55709.62810461249</v>
+        <v>-55998.13810813443</v>
       </c>
       <c r="F6" t="n">
-        <v>268728.694124573</v>
+        <v>268440.1841210507</v>
       </c>
       <c r="G6" t="n">
-        <v>205793.5012736843</v>
+        <v>205793.5012736841</v>
       </c>
       <c r="H6" t="n">
-        <v>286918.9472893191</v>
+        <v>286918.947289319</v>
       </c>
       <c r="I6" t="n">
-        <v>286918.9472893188</v>
+        <v>286918.947289319</v>
       </c>
       <c r="J6" t="n">
-        <v>169720.8447000734</v>
+        <v>169718.7017981591</v>
       </c>
       <c r="K6" t="n">
-        <v>279302.1811062549</v>
+        <v>279300.0382043411</v>
       </c>
       <c r="L6" t="n">
         <v>195327.1375219845</v>
       </c>
       <c r="M6" t="n">
-        <v>192730.3647118835</v>
+        <v>192730.3647118834</v>
       </c>
       <c r="N6" t="n">
-        <v>287702.4482756084</v>
+        <v>287702.4482756082</v>
       </c>
       <c r="O6" t="n">
-        <v>255303.9455595592</v>
+        <v>255303.945559559</v>
       </c>
       <c r="P6" t="n">
-        <v>287702.4482756082</v>
+        <v>287702.4482756081</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>122.2898361675887</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="H2" t="n">
         <v>223.696643687132</v>
@@ -26707,10 +26707,10 @@
         <v>223.696643687132</v>
       </c>
       <c r="J2" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="L2" t="n">
         <v>146.4660509082938</v>
@@ -26747,7 +26747,7 @@
         <v>129.7074908367126</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7074908367128</v>
+        <v>129.7074908367126</v>
       </c>
       <c r="G3" t="n">
         <v>129.7074908367126</v>
@@ -26790,34 +26790,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="E4" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="F4" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="G4" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="H4" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="I4" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965951</v>
       </c>
       <c r="J4" t="n">
-        <v>719.7865646279121</v>
+        <v>719.786564627912</v>
       </c>
       <c r="K4" t="n">
-        <v>719.7865646279116</v>
+        <v>719.7865646279118</v>
       </c>
       <c r="L4" t="n">
-        <v>704.9317992240811</v>
+        <v>704.9317992240809</v>
       </c>
       <c r="M4" t="n">
         <v>523.5545893205274</v>
@@ -26829,7 +26829,7 @@
         <v>523.5545893205274</v>
       </c>
       <c r="P4" t="n">
-        <v>523.5545893205278</v>
+        <v>523.5545893205274</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>122.2898361675887</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>101.4068075195433</v>
+        <v>101.4068075195432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.49812839506102</v>
+        <v>40.49812839506113</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9679225132328</v>
+        <v>105.9679225132327</v>
       </c>
       <c r="M2" t="n">
         <v>47.51665178030439</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.49812839506102</v>
+        <v>40.49812839506119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.85476540383047</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="E4" t="n">
-        <v>409.9400023927644</v>
+        <v>409.9400023927645</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>294.9917968313167</v>
+        <v>294.9917968313168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>228.5627924892107</v>
+        <v>228.562792489211</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>122.2898361675887</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>101.4068075195433</v>
+        <v>101.4068075195432</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.49812839506102</v>
+        <v>40.49812839506113</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>14.85476540383047</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M4" t="n">
-        <v>409.9400023927644</v>
+        <v>409.9400023927645</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27637,7 +27637,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345615245</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109076</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056439</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082682</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
         <v>224.6571770672012</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180.083691490682</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312019</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145189</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
-        <v>146.9746241731987</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F7" t="n">
         <v>146.1590214098045</v>
@@ -27853,10 +27853,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>352.1303302751117</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>350.814518867445</v>
       </c>
       <c r="E8" t="n">
         <v>383.1180357552875</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>136.0606088137236</v>
+        <v>126.9960572970461</v>
       </c>
       <c r="S8" t="n">
-        <v>191.0101863197083</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>208.1103517925894</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>150.5173602065139</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
@@ -27950,7 +27950,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>71.64877806164074</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.61090239339694</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>154.1068485018135</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>183.5277665044377</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>209.8024116633703</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>218.8246536719608</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28020,7 +28020,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>131.3042560059736</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
         <v>167.8895889301081</v>
@@ -28029,7 +28029,7 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>140.6744694297093</v>
       </c>
       <c r="J10" t="n">
         <v>88.83884492777894</v>
@@ -28062,19 +28062,19 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>215.2483886238134</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>271.1975049872333</v>
       </c>
       <c r="V10" t="n">
         <v>238.0815856631082</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>271.2378114835846</v>
       </c>
       <c r="X10" t="n">
-        <v>211.2855945284783</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y10" t="n">
         <v>218.7486738677682</v>
@@ -28166,16 +28166,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>122.2898361675887</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>122.2898361675887</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>122.2898361675887</v>
       </c>
       <c r="E12" t="n">
-        <v>118.9865957512605</v>
+        <v>122.2898361675887</v>
       </c>
       <c r="F12" t="n">
         <v>122.2898361675887</v>
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I12" t="n">
         <v>76.89784721011134</v>
@@ -28220,19 +28220,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11.21856980292398</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>122.2898361675887</v>
-      </c>
-      <c r="U12" t="n">
-        <v>122.2898361675887</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>122.2898361675887</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>109.0960963842059</v>
+        <v>109.0960963842071</v>
       </c>
       <c r="S14" t="n">
         <v>122.2898361675887</v>
@@ -28406,25 +28406,25 @@
         <v>122.2898361675887</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.2898361675887</v>
       </c>
       <c r="D15" t="n">
-        <v>73.59460679378313</v>
+        <v>122.2898361675887</v>
       </c>
       <c r="E15" t="n">
         <v>122.2898361675887</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>122.2898361675887</v>
       </c>
       <c r="G15" t="n">
-        <v>122.2898361675887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,22 +28451,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.3729114565204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>122.2898361675887</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>122.2898361675887</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>122.2898361675887</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>88.59148125944409</v>
       </c>
       <c r="X15" t="n">
         <v>122.2898361675887</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="C17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="D17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="E17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="F17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="I17" t="n">
         <v>185.1216021777427</v>
@@ -28618,19 +28618,19 @@
         <v>220.6825260762687</v>
       </c>
       <c r="U17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="V17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="W17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="X17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.37291145652043</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28700,10 +28700,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>213.4956730348522</v>
+        <v>75.56206655507694</v>
       </c>
       <c r="W18" t="n">
-        <v>223.6966436871321</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28773,19 +28773,19 @@
         <v>218.2811895854557</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="U19" t="n">
-        <v>27.46188119237291</v>
+        <v>223.696643687132</v>
       </c>
       <c r="V19" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="W19" t="n">
-        <v>223.6966436871321</v>
+        <v>27.46188119237308</v>
       </c>
       <c r="X19" t="n">
-        <v>223.6966436871321</v>
+        <v>223.696643687132</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>107.7680259483362</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7794325500455</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.2579924358259</v>
       </c>
       <c r="U21" t="n">
-        <v>223.696643687132</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>8.541452028601924</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>93.55185858609764</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -28968,7 +28968,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>130.0079504057294</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>167.6556901761402</v>
@@ -29007,7 +29007,7 @@
         <v>162.8742091504646</v>
       </c>
       <c r="S22" t="n">
-        <v>218.2811895854557</v>
+        <v>22.04642709069682</v>
       </c>
       <c r="T22" t="n">
         <v>223.696643687132</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.222133505507372e-12</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29117,25 +29117,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>50.64890620232295</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,22 +29162,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.37291145652043</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7794325500455</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>223.696643687132</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>74.62940083756254</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29202,10 +29202,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>96.89888308824479</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>167.6556901761402</v>
@@ -29253,7 +29253,7 @@
         <v>223.696643687132</v>
       </c>
       <c r="V25" t="n">
-        <v>223.696643687132</v>
+        <v>27.46188119237314</v>
       </c>
       <c r="W25" t="n">
         <v>223.696643687132</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="C26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="D26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="E26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="G26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="H26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="I26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="J26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="K26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="L26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="M26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="N26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="O26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="P26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="R26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="S26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="T26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="U26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="V26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="W26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="X26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Y26" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
     </row>
     <row r="27">
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24.89882065453216</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>96.11101293063446</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.37291145652043</v>
       </c>
       <c r="S27" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="C28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="D28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="E28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="G28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="H28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="I28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="J28" t="n">
         <v>72.30220302225248</v>
       </c>
       <c r="K28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="L28" t="n">
-        <v>99.91295821606826</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>141.9049359146043</v>
+        <v>99.91295821606599</v>
       </c>
       <c r="O28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Q28" t="n">
         <v>60.17486875950457</v>
       </c>
       <c r="R28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="S28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="T28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="U28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="V28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="W28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="X28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="C29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="D29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="E29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="G29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="H29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="I29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="J29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="K29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="L29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="M29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="N29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="O29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="P29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="R29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="S29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="T29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="U29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="V29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="W29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="X29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Y29" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>130.2479228969022</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.744216734186</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29648,10 +29648,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>37.26464340655957</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="C31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="D31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="E31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="F31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="G31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="H31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="I31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="J31" t="n">
-        <v>141.9049359146043</v>
+        <v>72.30220302225248</v>
       </c>
       <c r="K31" t="n">
-        <v>141.9049359146043</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="N31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="O31" t="n">
-        <v>30.31022532371661</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="P31" t="n">
-        <v>141.9049359146043</v>
+        <v>18.1828910609674</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.17486875950457</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="R31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="S31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="T31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="U31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="V31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="W31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="X31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
       <c r="Y31" t="n">
-        <v>141.9049359146043</v>
+        <v>141.9049359146044</v>
       </c>
     </row>
     <row r="32">
@@ -29779,10 +29779,10 @@
         <v>146.4660509082938</v>
       </c>
       <c r="M32" t="n">
-        <v>46.59714689133585</v>
+        <v>146.4660509082938</v>
       </c>
       <c r="N32" t="n">
-        <v>146.4660509082938</v>
+        <v>46.59714689133506</v>
       </c>
       <c r="O32" t="n">
         <v>146.4660509082938</v>
@@ -29825,10 +29825,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>146.4660509082938</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>146.4660509082938</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.744216734186</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I33" t="n">
         <v>76.89784721011134</v>
@@ -29876,19 +29876,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>146.4660509082938</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>131.8475270836316</v>
       </c>
       <c r="V33" t="n">
-        <v>146.4660509082938</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>82.42766794956609</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>146.4660509082938</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>146.4660509082938</v>
       </c>
       <c r="G34" t="n">
         <v>146.4660509082938</v>
@@ -29934,22 +29934,22 @@
         <v>146.4660509082938</v>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>146.4660509082938</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>146.4660509082938</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
       <c r="P34" t="n">
-        <v>12.08329102242737</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.17486875950457</v>
+        <v>71.95113028344274</v>
       </c>
       <c r="R34" t="n">
         <v>146.4660509082938</v>
@@ -30004,10 +30004,10 @@
         <v>193.9827026885982</v>
       </c>
       <c r="I35" t="n">
-        <v>185.1216021777427</v>
+        <v>188.2051870771252</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3.083584899382515</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>193.9827026885982</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>193.9827026885982</v>
       </c>
       <c r="R35" t="n">
         <v>109.0960963842071</v>
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>89.04724649912961</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.744216734186</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,10 +30113,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7794325500455</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>130.2229040805195</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,10 +30128,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>193.9827026885982</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30177,13 +30177,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.427814074010584</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.42781407401057</v>
       </c>
       <c r="Q37" t="n">
         <v>60.17486875950457</v>
@@ -30241,28 +30241,28 @@
         <v>193.9827026885982</v>
       </c>
       <c r="I38" t="n">
+        <v>185.1216021777427</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>193.9827026885982</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>188.2051870771252</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
+        <v>3.083584899382572</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>193.9827026885982</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -30317,10 +30317,10 @@
         <v>135.744216734186</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30350,22 +30350,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7794325500455</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>109.3364634721175</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>193.9827026885982</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="n">
-        <v>130.2229040805196</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30393,7 +30393,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6556901761402</v>
+        <v>169.0835042501508</v>
       </c>
       <c r="H40" t="n">
         <v>159.5544994509118</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.427814074010598</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30478,34 +30478,34 @@
         <v>193.9827026885982</v>
       </c>
       <c r="I41" t="n">
+        <v>185.1216021777427</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>189.088291079017</v>
+      </c>
+      <c r="N41" t="n">
         <v>193.9827026885982</v>
       </c>
-      <c r="J41" t="n">
-        <v>103.3185807727342</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>7.977996508963798</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9827026885982</v>
+        <v>109.0960963842071</v>
       </c>
       <c r="S41" t="n">
         <v>193.9827026885982</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>159.8129340771663</v>
       </c>
       <c r="C42" t="n">
-        <v>100.0196339419667</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.744216734186</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>76.89784721011134</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>168.7643670052129</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.427814074010186</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30715,28 +30715,28 @@
         <v>193.9827026885982</v>
       </c>
       <c r="I44" t="n">
+        <v>188.2051870771253</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>193.9827026885982</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>188.2051870771274</v>
-      </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>193.9827026885982</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30776,25 +30776,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7680259483362</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.446711405464598</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7794325500455</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>193.9827026885982</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>119.8546972400579</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>193.9827026885982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.42781407401057</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.427814074010158</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5214371490923124</v>
+        <v>0.5214371490923116</v>
       </c>
       <c r="H14" t="n">
-        <v>5.340168203141646</v>
+        <v>5.340168203141638</v>
       </c>
       <c r="I14" t="n">
-        <v>20.10270569038139</v>
+        <v>20.10270569038136</v>
       </c>
       <c r="J14" t="n">
-        <v>44.2563262327737</v>
+        <v>44.25632623277362</v>
       </c>
       <c r="K14" t="n">
-        <v>66.3287607538513</v>
+        <v>66.32876075385118</v>
       </c>
       <c r="L14" t="n">
-        <v>82.28669290538517</v>
+        <v>82.28669290538504</v>
       </c>
       <c r="M14" t="n">
-        <v>91.55980080555558</v>
+        <v>91.55980080555544</v>
       </c>
       <c r="N14" t="n">
-        <v>93.04133410541412</v>
+        <v>93.04133410541398</v>
       </c>
       <c r="O14" t="n">
-        <v>87.85629345412742</v>
+        <v>87.8562934541273</v>
       </c>
       <c r="P14" t="n">
-        <v>74.98331383591095</v>
+        <v>74.98331383591083</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.3093459340425</v>
+        <v>56.30934593404241</v>
       </c>
       <c r="R14" t="n">
-        <v>32.75472631667</v>
+        <v>32.75472631666995</v>
       </c>
       <c r="S14" t="n">
-        <v>11.88224903494108</v>
+        <v>11.88224903494106</v>
       </c>
       <c r="T14" t="n">
-        <v>2.282591120151599</v>
+        <v>2.282591120151595</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04171497192738498</v>
+        <v>0.04171497192738492</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2789934708563257</v>
+        <v>0.2789934708563253</v>
       </c>
       <c r="H15" t="n">
-        <v>2.694489573796619</v>
+        <v>2.694489573796615</v>
       </c>
       <c r="I15" t="n">
-        <v>9.605696255360337</v>
+        <v>9.605696255360323</v>
       </c>
       <c r="J15" t="n">
-        <v>26.35876471805313</v>
+        <v>26.35876471805308</v>
       </c>
       <c r="K15" t="n">
-        <v>45.05132726542695</v>
+        <v>45.05132726542688</v>
       </c>
       <c r="L15" t="n">
-        <v>60.57706918746669</v>
+        <v>60.5770691874666</v>
       </c>
       <c r="M15" t="n">
-        <v>70.69058250600848</v>
+        <v>70.69058250600837</v>
       </c>
       <c r="N15" t="n">
-        <v>72.56155187854938</v>
+        <v>72.56155187854927</v>
       </c>
       <c r="O15" t="n">
-        <v>66.37964391904869</v>
+        <v>66.37964391904858</v>
       </c>
       <c r="P15" t="n">
-        <v>53.2755163778189</v>
+        <v>53.27551637781882</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.61327182369519</v>
+        <v>35.61327182369514</v>
       </c>
       <c r="R15" t="n">
-        <v>17.32206830457082</v>
+        <v>17.3220683045708</v>
       </c>
       <c r="S15" t="n">
-        <v>5.182181355598853</v>
+        <v>5.182181355598845</v>
       </c>
       <c r="T15" t="n">
-        <v>1.124539472442821</v>
+        <v>1.124539472442819</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0183548336089688</v>
+        <v>0.01835483360896878</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2338987539678428</v>
+        <v>0.2338987539678424</v>
       </c>
       <c r="H16" t="n">
-        <v>2.079572558005004</v>
+        <v>2.079572558005</v>
       </c>
       <c r="I16" t="n">
-        <v>7.033973437505674</v>
+        <v>7.033973437505663</v>
       </c>
       <c r="J16" t="n">
-        <v>16.53664190552648</v>
+        <v>16.53664190552646</v>
       </c>
       <c r="K16" t="n">
-        <v>27.17478250644573</v>
+        <v>27.17478250644568</v>
       </c>
       <c r="L16" t="n">
-        <v>34.77436565809183</v>
+        <v>34.77436565809177</v>
       </c>
       <c r="M16" t="n">
-        <v>36.66469286061375</v>
+        <v>36.66469286061369</v>
       </c>
       <c r="N16" t="n">
-        <v>35.79288841400636</v>
+        <v>35.79288841400631</v>
       </c>
       <c r="O16" t="n">
-        <v>33.06052569720019</v>
+        <v>33.06052569720013</v>
       </c>
       <c r="P16" t="n">
-        <v>28.28899111625617</v>
+        <v>28.28899111625613</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.58583111634363</v>
+        <v>19.58583111634361</v>
       </c>
       <c r="R16" t="n">
-        <v>10.51693851931773</v>
+        <v>10.51693851931771</v>
       </c>
       <c r="S16" t="n">
-        <v>4.076217375966858</v>
+        <v>4.076217375966852</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9993855851353279</v>
+        <v>0.9993855851353264</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01275811385279144</v>
+        <v>0.01275811385279142</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.837363033884704e-12</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35100,7 +35100,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.19503020354938</v>
       </c>
       <c r="L8" t="n">
         <v>14.85476540383092</v>
@@ -35182,13 +35182,13 @@
         <v>14.85476540383092</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19503020354938</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6.786582108236847</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>14.85476540383092</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.254572862262</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>8.132550963578161</v>
+      </c>
+      <c r="M10" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8.132550963578161</v>
       </c>
       <c r="N10" t="n">
         <v>14.85476540383092</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.82675547207823</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>185.6997707585086</v>
       </c>
       <c r="L12" t="n">
         <v>311.1605080176868</v>
@@ -35498,16 +35498,16 @@
         <v>416.4431657320404</v>
       </c>
       <c r="N12" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="O12" t="n">
-        <v>275.7654561441989</v>
+        <v>192.4792571128865</v>
       </c>
       <c r="P12" t="n">
-        <v>253.8517485343814</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.6114213351072</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.59704909821128</v>
+        <v>43.59704909821121</v>
       </c>
       <c r="K14" t="n">
-        <v>188.8523850590066</v>
+        <v>188.8523850590065</v>
       </c>
       <c r="L14" t="n">
-        <v>286.782101442116</v>
+        <v>286.7821014421159</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4662982415105</v>
+        <v>334.4662982415103</v>
       </c>
       <c r="N14" t="n">
-        <v>324.2043984872014</v>
+        <v>324.2043984872013</v>
       </c>
       <c r="O14" t="n">
-        <v>259.542725831238</v>
+        <v>259.5427258312379</v>
       </c>
       <c r="P14" t="n">
-        <v>184.2017994728651</v>
+        <v>184.201799472865</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.36888859275511</v>
+        <v>60.36888859275503</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.82675547207828</v>
+        <v>33.82675547207823</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6997707585087</v>
+        <v>185.6997707585086</v>
       </c>
       <c r="L15" t="n">
-        <v>311.1605080176869</v>
+        <v>311.1605080176868</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4431657320405</v>
+        <v>416.4431657320404</v>
       </c>
       <c r="N15" t="n">
-        <v>26.45715874158544</v>
+        <v>26.45715874158659</v>
       </c>
       <c r="O15" t="n">
-        <v>336.9651176335141</v>
+        <v>336.965117633514</v>
       </c>
       <c r="P15" t="n">
-        <v>253.8517485343816</v>
+        <v>253.8517485343814</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.6114213351073</v>
+        <v>117.6114213351072</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.98763314533625</v>
+        <v>49.98763314533626</v>
       </c>
       <c r="K16" t="n">
         <v>134.6902089562011</v>
@@ -35817,13 +35817,13 @@
         <v>212.279744246233</v>
       </c>
       <c r="O16" t="n">
-        <v>189.91856989476</v>
+        <v>189.9185698947599</v>
       </c>
       <c r="P16" t="n">
         <v>156.7008491825287</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.11496740808416</v>
+        <v>62.11496740808418</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>33.82675547207823</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>185.6997707585086</v>
       </c>
       <c r="L18" t="n">
-        <v>216.1340910562934</v>
+        <v>311.1605080176868</v>
       </c>
       <c r="M18" t="n">
         <v>416.4431657320404</v>
       </c>
       <c r="N18" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="O18" t="n">
-        <v>336.965117633514</v>
+        <v>56.23892991361227</v>
       </c>
       <c r="P18" t="n">
         <v>253.8517485343814</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>33.82675547207823</v>
       </c>
       <c r="K21" t="n">
         <v>185.6997707585086</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>363.0928201667963</v>
+        <v>416.4431657320404</v>
       </c>
       <c r="N21" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965955</v>
       </c>
       <c r="O21" t="n">
-        <v>336.965117633514</v>
+        <v>249.7880165961919</v>
       </c>
       <c r="P21" t="n">
         <v>253.8517485343814</v>
@@ -36373,7 +36373,7 @@
         <v>259.5427258312379</v>
       </c>
       <c r="P23" t="n">
-        <v>184.201799472865</v>
+        <v>184.2017994728638</v>
       </c>
       <c r="Q23" t="n">
         <v>60.36888859275503</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>33.82675547207823</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>185.6997707585086</v>
       </c>
       <c r="L24" t="n">
         <v>311.1605080176868</v>
       </c>
       <c r="M24" t="n">
-        <v>321.4167487706471</v>
+        <v>51.93231214910885</v>
       </c>
       <c r="N24" t="n">
-        <v>424.7947677965954</v>
+        <v>424.7947677965951</v>
       </c>
       <c r="O24" t="n">
         <v>336.965117633514</v>
@@ -36455,7 +36455,7 @@
         <v>253.8517485343814</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.6114213351072</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>185.5019850128155</v>
+        <v>185.5019850128157</v>
       </c>
       <c r="K26" t="n">
-        <v>330.7573209736108</v>
+        <v>330.7573209736109</v>
       </c>
       <c r="L26" t="n">
-        <v>428.6870373567202</v>
+        <v>428.6870373567203</v>
       </c>
       <c r="M26" t="n">
-        <v>476.3712341561147</v>
+        <v>476.3712341561148</v>
       </c>
       <c r="N26" t="n">
-        <v>466.1093344018057</v>
+        <v>466.1093344018058</v>
       </c>
       <c r="O26" t="n">
-        <v>401.4476617458423</v>
+        <v>401.4476617458424</v>
       </c>
       <c r="P26" t="n">
-        <v>326.1067353874693</v>
+        <v>326.1067353874694</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.2738245073593</v>
+        <v>202.2738245073594</v>
       </c>
       <c r="R26" t="n">
-        <v>32.8088395303972</v>
+        <v>32.80883953039731</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.3053087032167</v>
+        <v>154.3053087032168</v>
       </c>
       <c r="L28" t="n">
-        <v>172.1484541031693</v>
+        <v>72.23549588710105</v>
       </c>
       <c r="M28" t="n">
         <v>86.86210085752225</v>
       </c>
       <c r="N28" t="n">
-        <v>231.8948439932485</v>
+        <v>189.9028662947102</v>
       </c>
       <c r="O28" t="n">
-        <v>209.5336696417755</v>
+        <v>209.5336696417756</v>
       </c>
       <c r="P28" t="n">
-        <v>34.41101301493997</v>
+        <v>176.3159489295444</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>185.5019850128155</v>
+        <v>185.5019850128156</v>
       </c>
       <c r="K29" t="n">
         <v>330.7573209736108</v>
       </c>
       <c r="L29" t="n">
-        <v>428.6870373567202</v>
+        <v>428.6870373567203</v>
       </c>
       <c r="M29" t="n">
         <v>476.3712341561147</v>
@@ -36847,13 +36847,13 @@
         <v>401.4476617458423</v>
       </c>
       <c r="P29" t="n">
-        <v>326.1067353874693</v>
+        <v>326.1067353874694</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.2738245073593</v>
+        <v>202.2738245073594</v>
       </c>
       <c r="R29" t="n">
-        <v>32.80883953039719</v>
+        <v>32.80883953039726</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.60273289235184</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.3053087032167</v>
+        <v>12.40037278861233</v>
       </c>
       <c r="L31" t="n">
         <v>72.23549588710105</v>
       </c>
       <c r="M31" t="n">
-        <v>86.86210085752225</v>
+        <v>228.7670367721266</v>
       </c>
       <c r="N31" t="n">
-        <v>231.8948439932485</v>
+        <v>231.8948439932486</v>
       </c>
       <c r="O31" t="n">
-        <v>97.9389590508878</v>
+        <v>209.5336696417756</v>
       </c>
       <c r="P31" t="n">
-        <v>176.3159489295443</v>
+        <v>52.59390407590737</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>81.73006715509982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,10 +37075,10 @@
         <v>433.2481523504097</v>
       </c>
       <c r="M32" t="n">
-        <v>381.0634451328462</v>
+        <v>480.9323491498041</v>
       </c>
       <c r="N32" t="n">
-        <v>470.6704493954951</v>
+        <v>370.8015453785364</v>
       </c>
       <c r="O32" t="n">
         <v>406.0087767395317</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.3070294984892996</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>158.8664236969061</v>
       </c>
       <c r="L34" t="n">
-        <v>218.7015467953948</v>
+        <v>72.23549588710105</v>
       </c>
       <c r="M34" t="n">
-        <v>233.328151765816</v>
+        <v>86.86210085752225</v>
       </c>
       <c r="N34" t="n">
-        <v>89.98990807864419</v>
+        <v>236.455958986938</v>
       </c>
       <c r="O34" t="n">
-        <v>67.62873372717119</v>
+        <v>214.094784635465</v>
       </c>
       <c r="P34" t="n">
-        <v>46.49430403736734</v>
+        <v>34.41101301493997</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>11.77626152393817</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.083584899382523</v>
       </c>
       <c r="J35" t="n">
-        <v>237.5797517868094</v>
+        <v>43.59704909821121</v>
       </c>
       <c r="K35" t="n">
         <v>188.8523850590065</v>
@@ -37318,13 +37318,13 @@
         <v>324.2043984872013</v>
       </c>
       <c r="O35" t="n">
-        <v>262.6263107306204</v>
+        <v>259.5427258312379</v>
       </c>
       <c r="P35" t="n">
         <v>378.1845021614632</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.36888859275503</v>
+        <v>254.3515912813532</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.313452575648842</v>
+        <v>33.82675547207823</v>
       </c>
       <c r="K36" t="n">
         <v>185.6997707585086</v>
       </c>
       <c r="L36" t="n">
-        <v>311.1605080176868</v>
+        <v>285.6472051212574</v>
       </c>
       <c r="M36" t="n">
         <v>416.4431657320404</v>
@@ -37473,13 +37473,13 @@
         <v>86.86210085752225</v>
       </c>
       <c r="N37" t="n">
-        <v>91.41772215265478</v>
+        <v>89.98990807864419</v>
       </c>
       <c r="O37" t="n">
         <v>67.62873372717119</v>
       </c>
       <c r="P37" t="n">
-        <v>34.41101301493997</v>
+        <v>35.83882708895054</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.861100510855529</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>43.59704909821121</v>
       </c>
       <c r="K38" t="n">
-        <v>188.8523850590065</v>
+        <v>382.8350877476047</v>
       </c>
       <c r="L38" t="n">
-        <v>474.9872885192411</v>
+        <v>286.7821014421159</v>
       </c>
       <c r="M38" t="n">
         <v>334.4662982415103</v>
       </c>
       <c r="N38" t="n">
-        <v>518.1871011757995</v>
+        <v>327.2879833865839</v>
       </c>
       <c r="O38" t="n">
         <v>259.5427258312379</v>
       </c>
       <c r="P38" t="n">
-        <v>184.201799472865</v>
+        <v>378.1845021614632</v>
       </c>
       <c r="Q38" t="n">
         <v>60.36888859275503</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.313452575648842</v>
+        <v>33.82675547207823</v>
       </c>
       <c r="K39" t="n">
-        <v>185.6997707585086</v>
+        <v>160.1864678620792</v>
       </c>
       <c r="L39" t="n">
         <v>311.1605080176868</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.427814074010594</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>12.40037278861233</v>
       </c>
       <c r="L40" t="n">
-        <v>73.66330996111165</v>
+        <v>72.23549588710105</v>
       </c>
       <c r="M40" t="n">
         <v>86.86210085752225</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.861100510855529</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>146.9156298709454</v>
+        <v>43.59704909821121</v>
       </c>
       <c r="K41" t="n">
         <v>188.8523850590065</v>
@@ -37786,22 +37786,22 @@
         <v>286.7821014421159</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4662982415103</v>
+        <v>523.5545893205274</v>
       </c>
       <c r="N41" t="n">
-        <v>324.2043984872013</v>
+        <v>518.1871011757995</v>
       </c>
       <c r="O41" t="n">
         <v>259.5427258312379</v>
       </c>
       <c r="P41" t="n">
-        <v>378.1845021614632</v>
+        <v>184.201799472865</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.36888859275503</v>
+        <v>68.34688510171883</v>
       </c>
       <c r="R41" t="n">
-        <v>84.88660630439105</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>33.82675547207823</v>
       </c>
       <c r="K42" t="n">
-        <v>160.1864678620792</v>
+        <v>185.6997707585086</v>
       </c>
       <c r="L42" t="n">
         <v>311.1605080176868</v>
@@ -37871,7 +37871,7 @@
         <v>443.0194519145949</v>
       </c>
       <c r="O42" t="n">
-        <v>336.965117633514</v>
+        <v>311.4518147370849</v>
       </c>
       <c r="P42" t="n">
         <v>253.8517485343814</v>
@@ -37914,7 +37914,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.427814074010594</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>86.86210085752225</v>
       </c>
       <c r="N43" t="n">
-        <v>89.98990807864419</v>
+        <v>91.41772215265438</v>
       </c>
       <c r="O43" t="n">
         <v>67.62873372717119</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.861100510855529</v>
+        <v>3.083584899382638</v>
       </c>
       <c r="J44" t="n">
         <v>43.59704909821121</v>
@@ -38026,13 +38026,13 @@
         <v>334.4662982415103</v>
       </c>
       <c r="N44" t="n">
-        <v>512.4095855643287</v>
+        <v>518.1871011757995</v>
       </c>
       <c r="O44" t="n">
-        <v>453.5254285198361</v>
+        <v>259.5427258312379</v>
       </c>
       <c r="P44" t="n">
-        <v>184.201799472865</v>
+        <v>378.1845021614632</v>
       </c>
       <c r="Q44" t="n">
         <v>60.36888859275503</v>
@@ -38102,7 +38102,7 @@
         <v>311.1605080176868</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4431657320404</v>
+        <v>390.9298628356111</v>
       </c>
       <c r="N45" t="n">
         <v>443.0194519145949</v>
@@ -38114,7 +38114,7 @@
         <v>253.8517485343814</v>
       </c>
       <c r="Q45" t="n">
-        <v>92.09811843867983</v>
+        <v>117.6114213351072</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>72.23549588710105</v>
       </c>
       <c r="M46" t="n">
-        <v>88.28991493153282</v>
+        <v>86.86210085752225</v>
       </c>
       <c r="N46" t="n">
         <v>89.98990807864419</v>
       </c>
       <c r="O46" t="n">
-        <v>67.62873372717119</v>
+        <v>69.05654780118135</v>
       </c>
       <c r="P46" t="n">
         <v>34.41101301493997</v>
